--- a/kerntabellen/gemeente_treg_gem.xlsx
+++ b/kerntabellen/gemeente_treg_gem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BA282-9090-4EF2-AD31-167E61131477}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7469E8-CED2-4800-A95D-C6EAE4B4D0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4875" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="765" windowWidth="16590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="56">
   <si>
     <t>Randstedelijk gebied Antw-Mechelen</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Voerstreek</t>
   </si>
   <si>
-    <t>Niet te lokaliseren</t>
-  </si>
-  <si>
     <t>gemeente</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Name TREG_gem</t>
+  </si>
+  <si>
+    <t>Buiten Vlaanderen</t>
   </si>
 </sst>
 </file>
@@ -237,9 +237,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -578,3354 +579,3365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="C304" sqref="C304:D304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11001</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11002</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11004</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11005</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11007</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11008</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11009</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11013</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11016</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11018</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11021</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11022</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11023</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11024</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11025</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11029</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11030</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11035</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11037</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11038</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11039</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11040</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11044</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11050</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11052</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11053</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11054</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11055</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11056</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11057</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12002</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12005</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12007</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12009</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12014</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12021</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12025</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12026</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12029</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12035</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12040</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12041</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13001</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13002</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13003</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13004</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13006</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13008</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13010</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>13011</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13012</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13013</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>13014</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13016</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>13017</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13019</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13021</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13023</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13025</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13029</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13031</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13035</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13036</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13037</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13040</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13044</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13046</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13049</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13053</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>23002</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>23003</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>23009</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23016</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>23023</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>23024</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>23025</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>23027</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>23032</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>23033</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23038</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>23039</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>23044</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>23045</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>23047</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>23050</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>23052</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>23060</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>23062</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>23064</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23077</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>23081</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23086</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>23088</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23094</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>23096</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23097</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>23098</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23099</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>23100</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>23101</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23102</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23103</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>23104</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23105</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>24001</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>24007</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24008</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>24009</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>24011</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>24014</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>24016</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24020</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>24028</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>24033</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24038</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24041</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>24043</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24045</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24048</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>24054</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24055</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>24059</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24062</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24066</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24086</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24094</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24104</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24107</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24109</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24130</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24133</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24134</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24135</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24137</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>31003</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>31004</v>
       </c>
       <c r="C137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
         <v>35</v>
       </c>
-      <c r="D137" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>31005</v>
       </c>
       <c r="C138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s">
         <v>37</v>
       </c>
-      <c r="D138" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>31006</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>31012</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>31022</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>31033</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>31040</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>31042</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>31043</v>
       </c>
       <c r="C145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
         <v>35</v>
       </c>
-      <c r="D145" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>32003</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>32006</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D147" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>32010</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>32011</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>32030</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>33011</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>33016</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>33021</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>33029</v>
       </c>
       <c r="C154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>33037</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>33039</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D156" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>33040</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>33041</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>34002</v>
       </c>
       <c r="C159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>34003</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>34009</v>
       </c>
       <c r="C161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>34013</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>34022</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>34023</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>34025</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>34027</v>
       </c>
       <c r="C166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>34040</v>
       </c>
       <c r="C167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34041</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>34042</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>34043</v>
       </c>
       <c r="C170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>35002</v>
       </c>
       <c r="C171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
         <v>35</v>
       </c>
-      <c r="D171" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>35005</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>35006</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D173" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>35011</v>
       </c>
       <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
         <v>35</v>
       </c>
-      <c r="D174" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>35013</v>
       </c>
       <c r="C175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s">
         <v>35</v>
       </c>
-      <c r="D175" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>35014</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>35029</v>
       </c>
       <c r="C177" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
         <v>35</v>
       </c>
-      <c r="D177" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>36006</v>
       </c>
       <c r="C178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D178" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>36007</v>
       </c>
       <c r="C179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>36008</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>36010</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D181" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>36011</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>36012</v>
       </c>
       <c r="C183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>36015</v>
       </c>
       <c r="C184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>36019</v>
       </c>
       <c r="C185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D185" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>37002</v>
       </c>
       <c r="C186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>37007</v>
       </c>
       <c r="C187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>37010</v>
       </c>
       <c r="C188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>37011</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>37012</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>37015</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>37017</v>
       </c>
       <c r="C192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D192" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>37018</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>37020</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>38002</v>
       </c>
       <c r="C195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D195" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>38008</v>
       </c>
       <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" t="s">
         <v>35</v>
       </c>
-      <c r="D196" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>38014</v>
       </c>
       <c r="C197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" t="s">
         <v>35</v>
       </c>
-      <c r="D197" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>38016</v>
       </c>
       <c r="C198" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" t="s">
         <v>35</v>
       </c>
-      <c r="D198" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>38025</v>
       </c>
       <c r="C199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D199" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>41002</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D200" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>41011</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>41018</v>
       </c>
       <c r="C202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>41024</v>
       </c>
       <c r="C203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D203" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>41027</v>
       </c>
       <c r="C204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>41034</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D205" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>41048</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D206" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>41063</v>
       </c>
       <c r="C207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>41081</v>
       </c>
       <c r="C208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>41082</v>
       </c>
       <c r="C209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D209" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>42003</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D210" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>42004</v>
       </c>
       <c r="C211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D211" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>42006</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D212" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>42008</v>
       </c>
       <c r="C213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D213" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>42010</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D214" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>42011</v>
       </c>
       <c r="C215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D215" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>42023</v>
       </c>
       <c r="C216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>42025</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D217" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>42026</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D218" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>42028</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D219" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>43002</v>
       </c>
       <c r="C220" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D220" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>43005</v>
       </c>
       <c r="C221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>43007</v>
       </c>
       <c r="C222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D222" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>43010</v>
       </c>
       <c r="C223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D223" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>43014</v>
       </c>
       <c r="C224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D224" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>43018</v>
       </c>
       <c r="C225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D225" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>44012</v>
       </c>
       <c r="C226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D226" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>44013</v>
       </c>
       <c r="C227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D227" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>44019</v>
       </c>
       <c r="C228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D228" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>44020</v>
       </c>
       <c r="C229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>44021</v>
       </c>
       <c r="C230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>44034</v>
       </c>
       <c r="C231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>44040</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D232" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>44043</v>
       </c>
       <c r="C233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D233" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>44045</v>
       </c>
       <c r="C234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>44048</v>
       </c>
       <c r="C235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D235" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>44052</v>
       </c>
       <c r="C236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D236" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>44064</v>
       </c>
       <c r="C237" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>44073</v>
       </c>
       <c r="C238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>44081</v>
       </c>
       <c r="C239" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D239" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>44083</v>
       </c>
       <c r="C240" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D240" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>44084</v>
       </c>
       <c r="C241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>44085</v>
       </c>
       <c r="C242" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>45035</v>
       </c>
       <c r="C243" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D243" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>45041</v>
       </c>
       <c r="C244" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D244" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>45059</v>
       </c>
       <c r="C245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D245" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>45060</v>
       </c>
       <c r="C246" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D246" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>45061</v>
       </c>
       <c r="C247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D247" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>45062</v>
       </c>
       <c r="C248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D248" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>45063</v>
       </c>
       <c r="C249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D249" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>45064</v>
       </c>
       <c r="C250" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D250" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>45065</v>
       </c>
       <c r="C251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D251" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>45068</v>
       </c>
       <c r="C252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D252" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>46003</v>
       </c>
       <c r="C253" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D253" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>46013</v>
       </c>
       <c r="C254" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D254" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>46014</v>
       </c>
       <c r="C255" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D255" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>46020</v>
       </c>
       <c r="C256" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D256" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>46021</v>
       </c>
       <c r="C257" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D257" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>46024</v>
       </c>
       <c r="C258" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D258" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>46025</v>
       </c>
       <c r="C259" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D259" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>71002</v>
       </c>
       <c r="C260" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>71004</v>
       </c>
       <c r="C261" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D261" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>71011</v>
       </c>
       <c r="C262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D262" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>71016</v>
       </c>
       <c r="C263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D263" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>71017</v>
       </c>
       <c r="C264" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D264" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>71020</v>
       </c>
       <c r="C265" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D265" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>71022</v>
       </c>
       <c r="C266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>71024</v>
       </c>
       <c r="C267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D267" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>71034</v>
       </c>
       <c r="C268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D268" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>71037</v>
       </c>
       <c r="C269" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D269" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>71045</v>
       </c>
       <c r="C270" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D270" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>71053</v>
       </c>
       <c r="C271" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D271" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>71057</v>
       </c>
       <c r="C272" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D272" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>71066</v>
       </c>
       <c r="C273" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D273" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>71067</v>
       </c>
       <c r="C274" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D274" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>71069</v>
       </c>
       <c r="C275" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D275" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>71070</v>
       </c>
       <c r="C276" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D276" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>72003</v>
       </c>
       <c r="C277" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D277" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>72004</v>
       </c>
       <c r="C278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D278" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>72018</v>
       </c>
       <c r="C279" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D279" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>72020</v>
       </c>
       <c r="C280" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D280" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>72021</v>
       </c>
       <c r="C281" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D281" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>72030</v>
       </c>
       <c r="C282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>72037</v>
       </c>
       <c r="C283" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D283" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>72038</v>
       </c>
       <c r="C284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D284" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>72039</v>
       </c>
       <c r="C285" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D285" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>72041</v>
       </c>
       <c r="C286" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D286" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>72042</v>
       </c>
       <c r="C287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D287" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>72043</v>
       </c>
       <c r="C288" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>73001</v>
       </c>
       <c r="C289" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D289" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>73006</v>
       </c>
       <c r="C290" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D290" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>73009</v>
       </c>
       <c r="C291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D291" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>73022</v>
       </c>
       <c r="C292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D292" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>73028</v>
       </c>
       <c r="C293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D293" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>73032</v>
       </c>
       <c r="C294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D294" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>73040</v>
       </c>
       <c r="C295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D295" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>73042</v>
       </c>
       <c r="C296" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D296" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>73066</v>
       </c>
       <c r="C297" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D297" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>73083</v>
       </c>
       <c r="C298" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D298" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>73098</v>
       </c>
       <c r="C299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D299" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>73107</v>
       </c>
       <c r="C300" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D300" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>73109</v>
       </c>
       <c r="C301" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D301" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>99991</v>
       </c>
       <c r="C302" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>99999</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>99992</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_treg_gem.xlsx
+++ b/kerntabellen/gemeente_treg_gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7469E8-CED2-4800-A95D-C6EAE4B4D0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F63705-3AC4-4536-B3D6-A05828BF7CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="765" windowWidth="16590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1140" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="54">
   <si>
     <t>Randstedelijk gebied Antw-Mechelen</t>
   </si>
@@ -189,13 +189,7 @@
     <t>Niet te lokaliseren (Vlaanderen)</t>
   </si>
   <si>
-    <t>TREG99999_GEM</t>
-  </si>
-  <si>
     <t>Name TREG_gem</t>
-  </si>
-  <si>
-    <t>Buiten Vlaanderen</t>
   </si>
 </sst>
 </file>
@@ -237,10 +231,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -579,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304:D304"/>
+      <selection activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3918,32 +3911,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>99999</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
-        <v>99992</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D314">
-    <sortCondition ref="C2:C314"/>
-    <sortCondition ref="B2:B314"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D312">
+    <sortCondition ref="C2:C312"/>
+    <sortCondition ref="B2:B312"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/kerntabellen/gemeente_treg_gem.xlsx
+++ b/kerntabellen/gemeente_treg_gem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F63705-3AC4-4536-B3D6-A05828BF7CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF47AE-832D-4F8E-8E6F-158A95183F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1140" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -135,15 +135,9 @@
     <t>TREG07_GEM</t>
   </si>
   <si>
-    <t>Kust (excl Zeebrugge)</t>
-  </si>
-  <si>
     <t>TREG06B_GEM</t>
   </si>
   <si>
-    <t>Kunststeden - Brugge (incl Zeebrugge)</t>
-  </si>
-  <si>
     <t>TREG18_GEM</t>
   </si>
   <si>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>Name TREG_gem</t>
+  </si>
+  <si>
+    <t>Kunststeden - Brugge (incl. Zeebrugge)</t>
+  </si>
+  <si>
+    <t>Kust (excl. Zeebrugge)</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="D302" sqref="D302"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,10 +2101,10 @@
         <v>31005</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D138" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>34</v>
       </c>
       <c r="D145" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>32003</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
@@ -2200,7 +2200,7 @@
         <v>32006</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D147" t="s">
         <v>6</v>
@@ -2211,7 +2211,7 @@
         <v>32010</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D148" t="s">
         <v>6</v>
@@ -2222,7 +2222,7 @@
         <v>32011</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D149" t="s">
         <v>6</v>
@@ -2233,7 +2233,7 @@
         <v>32030</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
@@ -2244,7 +2244,7 @@
         <v>33011</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
         <v>6</v>
@@ -2255,7 +2255,7 @@
         <v>33016</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
@@ -2266,7 +2266,7 @@
         <v>33021</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D153" t="s">
         <v>6</v>
@@ -2277,7 +2277,7 @@
         <v>33029</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -2288,7 +2288,7 @@
         <v>33037</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D155" t="s">
         <v>6</v>
@@ -2299,7 +2299,7 @@
         <v>33039</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D156" t="s">
         <v>6</v>
@@ -2310,7 +2310,7 @@
         <v>33040</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -2321,7 +2321,7 @@
         <v>33041</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D158" t="s">
         <v>6</v>
@@ -2332,7 +2332,7 @@
         <v>34002</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -2343,7 +2343,7 @@
         <v>34003</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -2354,7 +2354,7 @@
         <v>34009</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -2365,7 +2365,7 @@
         <v>34013</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -2376,7 +2376,7 @@
         <v>34022</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -2387,7 +2387,7 @@
         <v>34023</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -2398,7 +2398,7 @@
         <v>34025</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -2409,7 +2409,7 @@
         <v>34027</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -2420,7 +2420,7 @@
         <v>34040</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -2431,7 +2431,7 @@
         <v>34041</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -2442,7 +2442,7 @@
         <v>34042</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -2453,7 +2453,7 @@
         <v>34043</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -2467,7 +2467,7 @@
         <v>34</v>
       </c>
       <c r="D171" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>34</v>
       </c>
       <c r="D174" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>34</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="D177" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>36006</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D178" t="s">
         <v>6</v>
@@ -2552,7 +2552,7 @@
         <v>36007</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
@@ -2563,7 +2563,7 @@
         <v>36008</v>
       </c>
       <c r="C180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
@@ -2574,7 +2574,7 @@
         <v>36010</v>
       </c>
       <c r="C181" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D181" t="s">
         <v>11</v>
@@ -2596,7 +2596,7 @@
         <v>36012</v>
       </c>
       <c r="C183" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
@@ -2607,7 +2607,7 @@
         <v>36015</v>
       </c>
       <c r="C184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
@@ -2618,7 +2618,7 @@
         <v>36019</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D185" t="s">
         <v>6</v>
@@ -2629,7 +2629,7 @@
         <v>37002</v>
       </c>
       <c r="C186" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
@@ -2640,7 +2640,7 @@
         <v>37007</v>
       </c>
       <c r="C187" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
@@ -2651,7 +2651,7 @@
         <v>37010</v>
       </c>
       <c r="C188" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
@@ -2695,7 +2695,7 @@
         <v>37017</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D192" t="s">
         <v>11</v>
@@ -2728,7 +2728,7 @@
         <v>38002</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D195" t="s">
         <v>6</v>
@@ -2742,7 +2742,7 @@
         <v>34</v>
       </c>
       <c r="D196" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>34</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>34</v>
       </c>
       <c r="D198" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>38025</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D199" t="s">
         <v>6</v>
@@ -2783,7 +2783,7 @@
         <v>41002</v>
       </c>
       <c r="C200" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D200" t="s">
         <v>12</v>
@@ -2794,7 +2794,7 @@
         <v>41011</v>
       </c>
       <c r="C201" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
@@ -2805,7 +2805,7 @@
         <v>41018</v>
       </c>
       <c r="C202" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
@@ -2816,7 +2816,7 @@
         <v>41024</v>
       </c>
       <c r="C203" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D203" t="s">
         <v>12</v>
@@ -2827,7 +2827,7 @@
         <v>41027</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
@@ -2838,7 +2838,7 @@
         <v>41034</v>
       </c>
       <c r="C205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D205" t="s">
         <v>12</v>
@@ -2849,7 +2849,7 @@
         <v>41048</v>
       </c>
       <c r="C206" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D206" t="s">
         <v>12</v>
@@ -2860,7 +2860,7 @@
         <v>41063</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
@@ -2871,7 +2871,7 @@
         <v>41081</v>
       </c>
       <c r="C208" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
@@ -2882,7 +2882,7 @@
         <v>41082</v>
       </c>
       <c r="C209" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D209" t="s">
         <v>12</v>
@@ -2893,7 +2893,7 @@
         <v>42003</v>
       </c>
       <c r="C210" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D210" t="s">
         <v>12</v>
@@ -2904,7 +2904,7 @@
         <v>42004</v>
       </c>
       <c r="C211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D211" t="s">
         <v>12</v>
@@ -2915,7 +2915,7 @@
         <v>42006</v>
       </c>
       <c r="C212" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D212" t="s">
         <v>12</v>
@@ -2926,7 +2926,7 @@
         <v>42008</v>
       </c>
       <c r="C213" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D213" t="s">
         <v>12</v>
@@ -2937,7 +2937,7 @@
         <v>42010</v>
       </c>
       <c r="C214" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D214" t="s">
         <v>12</v>
@@ -2948,7 +2948,7 @@
         <v>42011</v>
       </c>
       <c r="C215" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D215" t="s">
         <v>12</v>
@@ -2959,7 +2959,7 @@
         <v>42023</v>
       </c>
       <c r="C216" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -2970,7 +2970,7 @@
         <v>42025</v>
       </c>
       <c r="C217" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D217" t="s">
         <v>12</v>
@@ -2981,7 +2981,7 @@
         <v>42026</v>
       </c>
       <c r="C218" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D218" t="s">
         <v>12</v>
@@ -2992,7 +2992,7 @@
         <v>42028</v>
       </c>
       <c r="C219" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D219" t="s">
         <v>12</v>
@@ -3003,7 +3003,7 @@
         <v>43002</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D220" t="s">
         <v>15</v>
@@ -3014,7 +3014,7 @@
         <v>43005</v>
       </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
@@ -3025,7 +3025,7 @@
         <v>43007</v>
       </c>
       <c r="C222" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D222" t="s">
         <v>15</v>
@@ -3036,7 +3036,7 @@
         <v>43010</v>
       </c>
       <c r="C223" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D223" t="s">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         <v>43014</v>
       </c>
       <c r="C224" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D224" t="s">
         <v>15</v>
@@ -3058,7 +3058,7 @@
         <v>43018</v>
       </c>
       <c r="C225" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D225" t="s">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         <v>44012</v>
       </c>
       <c r="C226" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D226" t="s">
         <v>16</v>
@@ -3080,7 +3080,7 @@
         <v>44013</v>
       </c>
       <c r="C227" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D227" t="s">
         <v>12</v>
@@ -3091,7 +3091,7 @@
         <v>44019</v>
       </c>
       <c r="C228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D228" t="s">
         <v>15</v>
@@ -3102,7 +3102,7 @@
         <v>44020</v>
       </c>
       <c r="C229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
@@ -3113,7 +3113,7 @@
         <v>44021</v>
       </c>
       <c r="C230" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
@@ -3124,7 +3124,7 @@
         <v>44034</v>
       </c>
       <c r="C231" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
@@ -3135,7 +3135,7 @@
         <v>44040</v>
       </c>
       <c r="C232" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D232" t="s">
         <v>12</v>
@@ -3146,7 +3146,7 @@
         <v>44043</v>
       </c>
       <c r="C233" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D233" t="s">
         <v>12</v>
@@ -3157,7 +3157,7 @@
         <v>44045</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
@@ -3168,7 +3168,7 @@
         <v>44048</v>
       </c>
       <c r="C235" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D235" t="s">
         <v>16</v>
@@ -3179,7 +3179,7 @@
         <v>44052</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D236" t="s">
         <v>13</v>
@@ -3190,7 +3190,7 @@
         <v>44064</v>
       </c>
       <c r="C237" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
@@ -3201,7 +3201,7 @@
         <v>44073</v>
       </c>
       <c r="C238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
@@ -3212,7 +3212,7 @@
         <v>44081</v>
       </c>
       <c r="C239" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D239" t="s">
         <v>16</v>
@@ -3223,7 +3223,7 @@
         <v>44083</v>
       </c>
       <c r="C240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D240" t="s">
         <v>16</v>
@@ -3234,7 +3234,7 @@
         <v>44084</v>
       </c>
       <c r="C241" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
@@ -3245,7 +3245,7 @@
         <v>44085</v>
       </c>
       <c r="C242" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
@@ -3256,7 +3256,7 @@
         <v>45035</v>
       </c>
       <c r="C243" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D243" t="s">
         <v>13</v>
@@ -3267,7 +3267,7 @@
         <v>45041</v>
       </c>
       <c r="C244" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D244" t="s">
         <v>13</v>
@@ -3278,7 +3278,7 @@
         <v>45059</v>
       </c>
       <c r="C245" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D245" t="s">
         <v>13</v>
@@ -3289,7 +3289,7 @@
         <v>45060</v>
       </c>
       <c r="C246" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D246" t="s">
         <v>13</v>
@@ -3300,7 +3300,7 @@
         <v>45061</v>
       </c>
       <c r="C247" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D247" t="s">
         <v>13</v>
@@ -3311,7 +3311,7 @@
         <v>45062</v>
       </c>
       <c r="C248" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D248" t="s">
         <v>13</v>
@@ -3322,7 +3322,7 @@
         <v>45063</v>
       </c>
       <c r="C249" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D249" t="s">
         <v>13</v>
@@ -3333,7 +3333,7 @@
         <v>45064</v>
       </c>
       <c r="C250" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D250" t="s">
         <v>13</v>
@@ -3344,7 +3344,7 @@
         <v>45065</v>
       </c>
       <c r="C251" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D251" t="s">
         <v>13</v>
@@ -3355,7 +3355,7 @@
         <v>45068</v>
       </c>
       <c r="C252" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D252" t="s">
         <v>13</v>
@@ -3366,7 +3366,7 @@
         <v>46003</v>
       </c>
       <c r="C253" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D253" t="s">
         <v>14</v>
@@ -3377,7 +3377,7 @@
         <v>46013</v>
       </c>
       <c r="C254" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D254" t="s">
         <v>14</v>
@@ -3388,7 +3388,7 @@
         <v>46014</v>
       </c>
       <c r="C255" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D255" t="s">
         <v>14</v>
@@ -3399,7 +3399,7 @@
         <v>46020</v>
       </c>
       <c r="C256" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D256" t="s">
         <v>14</v>
@@ -3410,7 +3410,7 @@
         <v>46021</v>
       </c>
       <c r="C257" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D257" t="s">
         <v>14</v>
@@ -3421,7 +3421,7 @@
         <v>46024</v>
       </c>
       <c r="C258" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D258" t="s">
         <v>14</v>
@@ -3432,7 +3432,7 @@
         <v>46025</v>
       </c>
       <c r="C259" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D259" t="s">
         <v>14</v>
@@ -3443,7 +3443,7 @@
         <v>71002</v>
       </c>
       <c r="C260" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
@@ -3454,7 +3454,7 @@
         <v>71004</v>
       </c>
       <c r="C261" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D261" t="s">
         <v>18</v>
@@ -3465,7 +3465,7 @@
         <v>71011</v>
       </c>
       <c r="C262" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D262" t="s">
         <v>19</v>
@@ -3476,7 +3476,7 @@
         <v>71016</v>
       </c>
       <c r="C263" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D263" t="s">
         <v>18</v>
@@ -3487,7 +3487,7 @@
         <v>71017</v>
       </c>
       <c r="C264" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D264" t="s">
         <v>19</v>
@@ -3498,7 +3498,7 @@
         <v>71020</v>
       </c>
       <c r="C265" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D265" t="s">
         <v>18</v>
@@ -3509,7 +3509,7 @@
         <v>71022</v>
       </c>
       <c r="C266" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
@@ -3520,7 +3520,7 @@
         <v>71024</v>
       </c>
       <c r="C267" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D267" t="s">
         <v>18</v>
@@ -3531,7 +3531,7 @@
         <v>71034</v>
       </c>
       <c r="C268" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D268" t="s">
         <v>18</v>
@@ -3542,7 +3542,7 @@
         <v>71037</v>
       </c>
       <c r="C269" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D269" t="s">
         <v>18</v>
@@ -3553,7 +3553,7 @@
         <v>71045</v>
       </c>
       <c r="C270" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D270" t="s">
         <v>19</v>
@@ -3564,7 +3564,7 @@
         <v>71053</v>
       </c>
       <c r="C271" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D271" t="s">
         <v>19</v>
@@ -3575,7 +3575,7 @@
         <v>71057</v>
       </c>
       <c r="C272" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D272" t="s">
         <v>18</v>
@@ -3586,7 +3586,7 @@
         <v>71066</v>
       </c>
       <c r="C273" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D273" t="s">
         <v>18</v>
@@ -3597,7 +3597,7 @@
         <v>71067</v>
       </c>
       <c r="C274" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D274" t="s">
         <v>18</v>
@@ -3608,7 +3608,7 @@
         <v>71069</v>
       </c>
       <c r="C275" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D275" t="s">
         <v>18</v>
@@ -3619,7 +3619,7 @@
         <v>71070</v>
       </c>
       <c r="C276" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D276" t="s">
         <v>18</v>
@@ -3630,7 +3630,7 @@
         <v>72003</v>
       </c>
       <c r="C277" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D277" t="s">
         <v>18</v>
@@ -3641,7 +3641,7 @@
         <v>72004</v>
       </c>
       <c r="C278" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D278" t="s">
         <v>18</v>
@@ -3652,7 +3652,7 @@
         <v>72018</v>
       </c>
       <c r="C279" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D279" t="s">
         <v>20</v>
@@ -3663,7 +3663,7 @@
         <v>72020</v>
       </c>
       <c r="C280" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D280" t="s">
         <v>18</v>
@@ -3674,7 +3674,7 @@
         <v>72021</v>
       </c>
       <c r="C281" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D281" t="s">
         <v>20</v>
@@ -3685,7 +3685,7 @@
         <v>72030</v>
       </c>
       <c r="C282" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
@@ -3696,7 +3696,7 @@
         <v>72037</v>
       </c>
       <c r="C283" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D283" t="s">
         <v>18</v>
@@ -3707,7 +3707,7 @@
         <v>72038</v>
       </c>
       <c r="C284" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D284" t="s">
         <v>18</v>
@@ -3718,7 +3718,7 @@
         <v>72039</v>
       </c>
       <c r="C285" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D285" t="s">
         <v>18</v>
@@ -3729,7 +3729,7 @@
         <v>72041</v>
       </c>
       <c r="C286" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D286" t="s">
         <v>20</v>
@@ -3740,7 +3740,7 @@
         <v>72042</v>
       </c>
       <c r="C287" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D287" t="s">
         <v>18</v>
@@ -3751,7 +3751,7 @@
         <v>72043</v>
       </c>
       <c r="C288" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
@@ -3762,7 +3762,7 @@
         <v>73001</v>
       </c>
       <c r="C289" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D289" t="s">
         <v>19</v>
@@ -3773,7 +3773,7 @@
         <v>73006</v>
       </c>
       <c r="C290" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D290" t="s">
         <v>19</v>
@@ -3784,7 +3784,7 @@
         <v>73009</v>
       </c>
       <c r="C291" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D291" t="s">
         <v>19</v>
@@ -3795,7 +3795,7 @@
         <v>73022</v>
       </c>
       <c r="C292" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D292" t="s">
         <v>19</v>
@@ -3806,7 +3806,7 @@
         <v>73028</v>
       </c>
       <c r="C293" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D293" t="s">
         <v>19</v>
@@ -3817,7 +3817,7 @@
         <v>73032</v>
       </c>
       <c r="C294" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D294" t="s">
         <v>19</v>
@@ -3828,7 +3828,7 @@
         <v>73040</v>
       </c>
       <c r="C295" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D295" t="s">
         <v>19</v>
@@ -3839,7 +3839,7 @@
         <v>73042</v>
       </c>
       <c r="C296" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D296" t="s">
         <v>20</v>
@@ -3850,7 +3850,7 @@
         <v>73066</v>
       </c>
       <c r="C297" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D297" t="s">
         <v>19</v>
@@ -3861,7 +3861,7 @@
         <v>73083</v>
       </c>
       <c r="C298" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D298" t="s">
         <v>19</v>
@@ -3872,7 +3872,7 @@
         <v>73098</v>
       </c>
       <c r="C299" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D299" t="s">
         <v>19</v>
@@ -3883,7 +3883,7 @@
         <v>73107</v>
       </c>
       <c r="C300" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D300" t="s">
         <v>20</v>
@@ -3894,7 +3894,7 @@
         <v>73109</v>
       </c>
       <c r="C301" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D301" t="s">
         <v>21</v>
@@ -3905,10 +3905,10 @@
         <v>99991</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_treg_gem.xlsx
+++ b/kerntabellen/gemeente_treg_gem.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF47AE-832D-4F8E-8E6F-158A95183F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB9A04-712F-40E5-8C3B-A94833596EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="339">
   <si>
     <t>Randstedelijk gebied Antw-Mechelen</t>
   </si>
@@ -190,22 +195,871 @@
   </si>
   <si>
     <t>Kust (excl. Zeebrugge)</t>
+  </si>
+  <si>
+    <t>Aalst</t>
+  </si>
+  <si>
+    <t>Aalter</t>
+  </si>
+  <si>
+    <t>Aarschot</t>
+  </si>
+  <si>
+    <t>Aartselaar</t>
+  </si>
+  <si>
+    <t>Affligem</t>
+  </si>
+  <si>
+    <t>Alken</t>
+  </si>
+  <si>
+    <t>Alveringem</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t>Anzegem</t>
+  </si>
+  <si>
+    <t>Ardooie</t>
+  </si>
+  <si>
+    <t>Arendonk</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Asse</t>
+  </si>
+  <si>
+    <t>Assenede</t>
+  </si>
+  <si>
+    <t>Avelgem</t>
+  </si>
+  <si>
+    <t>Baarle-Hertog</t>
+  </si>
+  <si>
+    <t>Balen</t>
+  </si>
+  <si>
+    <t>Beernem</t>
+  </si>
+  <si>
+    <t>Beerse</t>
+  </si>
+  <si>
+    <t>Beersel</t>
+  </si>
+  <si>
+    <t>Begijnendijk</t>
+  </si>
+  <si>
+    <t>Bekkevoort</t>
+  </si>
+  <si>
+    <t>Beringen</t>
+  </si>
+  <si>
+    <t>Berlaar</t>
+  </si>
+  <si>
+    <t>Berlare</t>
+  </si>
+  <si>
+    <t>Bertem</t>
+  </si>
+  <si>
+    <t>Bever</t>
+  </si>
+  <si>
+    <t>Beveren-Kruibeke-Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Bierbeek</t>
+  </si>
+  <si>
+    <t>Bilzen-Hoeselt</t>
+  </si>
+  <si>
+    <t>Blankenberge</t>
+  </si>
+  <si>
+    <t>Bocholt</t>
+  </si>
+  <si>
+    <t>Boechout</t>
+  </si>
+  <si>
+    <t>Bonheiden</t>
+  </si>
+  <si>
+    <t>Boom</t>
+  </si>
+  <si>
+    <t>Boortmeerbeek</t>
+  </si>
+  <si>
+    <t>Bornem</t>
+  </si>
+  <si>
+    <t>Boutersem</t>
+  </si>
+  <si>
+    <t>Brakel</t>
+  </si>
+  <si>
+    <t>Brasschaat</t>
+  </si>
+  <si>
+    <t>Brecht</t>
+  </si>
+  <si>
+    <t>Bredene</t>
+  </si>
+  <si>
+    <t>Bree</t>
+  </si>
+  <si>
+    <t>Brugge</t>
+  </si>
+  <si>
+    <t>Buggenhout</t>
+  </si>
+  <si>
+    <t>Damme</t>
+  </si>
+  <si>
+    <t>De Haan</t>
+  </si>
+  <si>
+    <t>De Panne</t>
+  </si>
+  <si>
+    <t>Deerlijk</t>
+  </si>
+  <si>
+    <t>Deinze</t>
+  </si>
+  <si>
+    <t>Denderleeuw</t>
+  </si>
+  <si>
+    <t>Dendermonde</t>
+  </si>
+  <si>
+    <t>Dentergem</t>
+  </si>
+  <si>
+    <t>Dessel</t>
+  </si>
+  <si>
+    <t>Destelbergen</t>
+  </si>
+  <si>
+    <t>Diepenbeek</t>
+  </si>
+  <si>
+    <t>Diest</t>
+  </si>
+  <si>
+    <t>Diksmuide</t>
+  </si>
+  <si>
+    <t>Dilbeek</t>
+  </si>
+  <si>
+    <t>Dilsen-Stokkem</t>
+  </si>
+  <si>
+    <t>Drogenbos</t>
+  </si>
+  <si>
+    <t>Duffel</t>
+  </si>
+  <si>
+    <t>Edegem</t>
+  </si>
+  <si>
+    <t>Eeklo</t>
+  </si>
+  <si>
+    <t>Erpe-Mere</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Evergem</t>
+  </si>
+  <si>
+    <t>Gavere</t>
+  </si>
+  <si>
+    <t>Geel</t>
+  </si>
+  <si>
+    <t>Geetbets</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Geraardsbergen</t>
+  </si>
+  <si>
+    <t>Gingelom</t>
+  </si>
+  <si>
+    <t>Gistel</t>
+  </si>
+  <si>
+    <t>Glabbeek</t>
+  </si>
+  <si>
+    <t>Grimbergen</t>
+  </si>
+  <si>
+    <t>Grobbendonk</t>
+  </si>
+  <si>
+    <t>Haacht</t>
+  </si>
+  <si>
+    <t>Haaltert</t>
+  </si>
+  <si>
+    <t>Halen</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>Hamme</t>
+  </si>
+  <si>
+    <t>Hamont-Achel</t>
+  </si>
+  <si>
+    <t>Harelbeke</t>
+  </si>
+  <si>
+    <t>Hechtel-Eksel</t>
+  </si>
+  <si>
+    <t>Heers</t>
+  </si>
+  <si>
+    <t>Heist-op-den-Berg</t>
+  </si>
+  <si>
+    <t>Hemiksem</t>
+  </si>
+  <si>
+    <t>Herent</t>
+  </si>
+  <si>
+    <t>Herentals</t>
+  </si>
+  <si>
+    <t>Herenthout</t>
+  </si>
+  <si>
+    <t>Herk-de-Stad</t>
+  </si>
+  <si>
+    <t>Herselt</t>
+  </si>
+  <si>
+    <t>Herstappe</t>
+  </si>
+  <si>
+    <t>Herzele</t>
+  </si>
+  <si>
+    <t>Heusden-Zolder</t>
+  </si>
+  <si>
+    <t>Heuvelland</t>
+  </si>
+  <si>
+    <t>Hoegaarden</t>
+  </si>
+  <si>
+    <t>Hoeilaart</t>
+  </si>
+  <si>
+    <t>Holsbeek</t>
+  </si>
+  <si>
+    <t>Hooglede</t>
+  </si>
+  <si>
+    <t>Hoogstraten</t>
+  </si>
+  <si>
+    <t>Horebeke</t>
+  </si>
+  <si>
+    <t>Houthalen-Helchteren</t>
+  </si>
+  <si>
+    <t>Houthulst</t>
+  </si>
+  <si>
+    <t>Hove</t>
+  </si>
+  <si>
+    <t>Huldenberg</t>
+  </si>
+  <si>
+    <t>Hulshout</t>
+  </si>
+  <si>
+    <t>Ichtegem</t>
+  </si>
+  <si>
+    <t>Ieper</t>
+  </si>
+  <si>
+    <t>Ingelmunster</t>
+  </si>
+  <si>
+    <t>Izegem</t>
+  </si>
+  <si>
+    <t>Jabbeke</t>
+  </si>
+  <si>
+    <t>Kalmthout</t>
+  </si>
+  <si>
+    <t>Kampenhout</t>
+  </si>
+  <si>
+    <t>Kapelle-op-den-Bos</t>
+  </si>
+  <si>
+    <t>Kapellen</t>
+  </si>
+  <si>
+    <t>Kaprijke</t>
+  </si>
+  <si>
+    <t>Kasterlee</t>
+  </si>
+  <si>
+    <t>Keerbergen</t>
+  </si>
+  <si>
+    <t>Kinrooi</t>
+  </si>
+  <si>
+    <t>Kluisbergen</t>
+  </si>
+  <si>
+    <t>Knokke-Heist</t>
+  </si>
+  <si>
+    <t>Koekelare</t>
+  </si>
+  <si>
+    <t>Koksijde</t>
+  </si>
+  <si>
+    <t>Kontich</t>
+  </si>
+  <si>
+    <t>Kortemark</t>
+  </si>
+  <si>
+    <t>Kortenaken</t>
+  </si>
+  <si>
+    <t>Kortenberg</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>Kraainem</t>
+  </si>
+  <si>
+    <t>Kruisem</t>
+  </si>
+  <si>
+    <t>Kuurne</t>
+  </si>
+  <si>
+    <t>Laakdal</t>
+  </si>
+  <si>
+    <t>Laarne</t>
+  </si>
+  <si>
+    <t>Lanaken</t>
+  </si>
+  <si>
+    <t>Landen</t>
+  </si>
+  <si>
+    <t>Langemark-Poelkapelle</t>
+  </si>
+  <si>
+    <t>Lebbeke</t>
+  </si>
+  <si>
+    <t>Lede</t>
+  </si>
+  <si>
+    <t>Ledegem</t>
+  </si>
+  <si>
+    <t>Lendelede</t>
+  </si>
+  <si>
+    <t>Lennik</t>
+  </si>
+  <si>
+    <t>Leopoldsburg</t>
+  </si>
+  <si>
+    <t>Leuven</t>
+  </si>
+  <si>
+    <t>Lichtervelde</t>
+  </si>
+  <si>
+    <t>Liedekerke</t>
+  </si>
+  <si>
+    <t>Lier</t>
+  </si>
+  <si>
+    <t>Lierde</t>
+  </si>
+  <si>
+    <t>Lievegem</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Linkebeek</t>
+  </si>
+  <si>
+    <t>Lint</t>
+  </si>
+  <si>
+    <t>Linter</t>
+  </si>
+  <si>
+    <t>Lo-Reninge</t>
+  </si>
+  <si>
+    <t>Lochristi</t>
+  </si>
+  <si>
+    <t>Lokeren</t>
+  </si>
+  <si>
+    <t>Lommel</t>
+  </si>
+  <si>
+    <t>Londerzeel</t>
+  </si>
+  <si>
+    <t>Lubbeek</t>
+  </si>
+  <si>
+    <t>Lummen</t>
+  </si>
+  <si>
+    <t>Maarkedal</t>
+  </si>
+  <si>
+    <t>Maaseik</t>
+  </si>
+  <si>
+    <t>Maasmechelen</t>
+  </si>
+  <si>
+    <t>Machelen</t>
+  </si>
+  <si>
+    <t>Maldegem</t>
+  </si>
+  <si>
+    <t>Malle</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Meerhout</t>
+  </si>
+  <si>
+    <t>Meise</t>
+  </si>
+  <si>
+    <t>Menen</t>
+  </si>
+  <si>
+    <t>Merchtem</t>
+  </si>
+  <si>
+    <t>Merelbeke-Melle</t>
+  </si>
+  <si>
+    <t>Merksplas</t>
+  </si>
+  <si>
+    <t>Mesen</t>
+  </si>
+  <si>
+    <t>Middelkerke</t>
+  </si>
+  <si>
+    <t>Mol</t>
+  </si>
+  <si>
+    <t>Moorslede</t>
+  </si>
+  <si>
+    <t>Mortsel</t>
+  </si>
+  <si>
+    <t>Nazareth-De Pinte</t>
+  </si>
+  <si>
+    <t>Niel</t>
+  </si>
+  <si>
+    <t>Nieuwerkerken</t>
+  </si>
+  <si>
+    <t>Nieuwpoort</t>
+  </si>
+  <si>
+    <t>Nijlen</t>
+  </si>
+  <si>
+    <t>Ninove</t>
+  </si>
+  <si>
+    <t>Olen</t>
+  </si>
+  <si>
+    <t>Oostende</t>
+  </si>
+  <si>
+    <t>Oosterzele</t>
+  </si>
+  <si>
+    <t>Oostkamp</t>
+  </si>
+  <si>
+    <t>Oostrozebeke</t>
+  </si>
+  <si>
+    <t>Opwijk</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee</t>
+  </si>
+  <si>
+    <t>Oud-Turnhout</t>
+  </si>
+  <si>
+    <t>Oudenaarde</t>
+  </si>
+  <si>
+    <t>Oudenburg</t>
+  </si>
+  <si>
+    <t>Oudsbergen</t>
+  </si>
+  <si>
+    <t>Overijse</t>
+  </si>
+  <si>
+    <t>Pajottegem</t>
+  </si>
+  <si>
+    <t>Peer</t>
+  </si>
+  <si>
+    <t>Pelt</t>
+  </si>
+  <si>
+    <t>Pepingen</t>
+  </si>
+  <si>
+    <t>Pittem</t>
+  </si>
+  <si>
+    <t>Poperinge</t>
+  </si>
+  <si>
+    <t>Putte</t>
+  </si>
+  <si>
+    <t>Puurs-Sint-Amands</t>
+  </si>
+  <si>
+    <t>Ranst</t>
+  </si>
+  <si>
+    <t>Ravels</t>
+  </si>
+  <si>
+    <t>Retie</t>
+  </si>
+  <si>
+    <t>Riemst</t>
+  </si>
+  <si>
+    <t>Rijkevorsel</t>
+  </si>
+  <si>
+    <t>Roeselare</t>
+  </si>
+  <si>
+    <t>Ronse</t>
+  </si>
+  <si>
+    <t>Roosdaal</t>
+  </si>
+  <si>
+    <t>Rotselaar</t>
+  </si>
+  <si>
+    <t>Rumst</t>
+  </si>
+  <si>
+    <t>Schelle</t>
+  </si>
+  <si>
+    <t>Scherpenheuvel-Zichem</t>
+  </si>
+  <si>
+    <t>Schilde</t>
+  </si>
+  <si>
+    <t>Schoten</t>
+  </si>
+  <si>
+    <t>Sint-Genesius-Rode</t>
+  </si>
+  <si>
+    <t>Sint-Gillis-Waas</t>
+  </si>
+  <si>
+    <t>Sint-Katelijne-Waver</t>
+  </si>
+  <si>
+    <t>Sint-Laureins</t>
+  </si>
+  <si>
+    <t>Sint-Lievens-Houtem</t>
+  </si>
+  <si>
+    <t>Sint-Martens-Latem</t>
+  </si>
+  <si>
+    <t>Sint-Niklaas</t>
+  </si>
+  <si>
+    <t>Sint-Pieters-Leeuw</t>
+  </si>
+  <si>
+    <t>Sint-Truiden</t>
+  </si>
+  <si>
+    <t>Spiere-Helkijn</t>
+  </si>
+  <si>
+    <t>Stabroek</t>
+  </si>
+  <si>
+    <t>Staden</t>
+  </si>
+  <si>
+    <t>Steenokkerzeel</t>
+  </si>
+  <si>
+    <t>Stekene</t>
+  </si>
+  <si>
+    <t>Temse</t>
+  </si>
+  <si>
+    <t>Ternat</t>
+  </si>
+  <si>
+    <t>Tervuren</t>
+  </si>
+  <si>
+    <t>Tessenderlo-Ham</t>
+  </si>
+  <si>
+    <t>Tielt</t>
+  </si>
+  <si>
+    <t>Tielt-Winge</t>
+  </si>
+  <si>
+    <t>Tienen</t>
+  </si>
+  <si>
+    <t>Tongeren-Borgloon</t>
+  </si>
+  <si>
+    <t>Torhout</t>
+  </si>
+  <si>
+    <t>Tremelo</t>
+  </si>
+  <si>
+    <t>Turnhout</t>
+  </si>
+  <si>
+    <t>Veurne</t>
+  </si>
+  <si>
+    <t>Vilvoorde</t>
+  </si>
+  <si>
+    <t>Vleteren</t>
+  </si>
+  <si>
+    <t>Voeren</t>
+  </si>
+  <si>
+    <t>Vorselaar</t>
+  </si>
+  <si>
+    <t>Vosselaar</t>
+  </si>
+  <si>
+    <t>Waasmunster</t>
+  </si>
+  <si>
+    <t>Waregem</t>
+  </si>
+  <si>
+    <t>Wellen</t>
+  </si>
+  <si>
+    <t>Wemmel</t>
+  </si>
+  <si>
+    <t>Wervik</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Wetteren</t>
+  </si>
+  <si>
+    <t>Wevelgem</t>
+  </si>
+  <si>
+    <t>Wezembeek-Oppem</t>
+  </si>
+  <si>
+    <t>Wichelen</t>
+  </si>
+  <si>
+    <t>Wielsbeke</t>
+  </si>
+  <si>
+    <t>Wijnegem</t>
+  </si>
+  <si>
+    <t>Willebroek</t>
+  </si>
+  <si>
+    <t>Wingene</t>
+  </si>
+  <si>
+    <t>Wommelgem</t>
+  </si>
+  <si>
+    <t>Wortegem-Petegem</t>
+  </si>
+  <si>
+    <t>Wuustwezel</t>
+  </si>
+  <si>
+    <t>Zandhoven</t>
+  </si>
+  <si>
+    <t>Zaventem</t>
+  </si>
+  <si>
+    <t>Zedelgem</t>
+  </si>
+  <si>
+    <t>Zele</t>
+  </si>
+  <si>
+    <t>Zelzate</t>
+  </si>
+  <si>
+    <t>Zemst</t>
+  </si>
+  <si>
+    <t>Zoersel</t>
+  </si>
+  <si>
+    <t>Zonhoven</t>
+  </si>
+  <si>
+    <t>Zonnebeke</t>
+  </si>
+  <si>
+    <t>Zottegem</t>
+  </si>
+  <si>
+    <t>Zoutleeuw</t>
+  </si>
+  <si>
+    <t>Zuienkerke</t>
+  </si>
+  <si>
+    <t>Zulte</t>
+  </si>
+  <si>
+    <t>Zutendaal</t>
+  </si>
+  <si>
+    <t>Zwalm</t>
+  </si>
+  <si>
+    <t>Zwevegem</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Vlaanderen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,9 +1085,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -252,9 +1105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,9 +1145,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,26 +1180,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,26 +1215,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,22 +1390,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC42AEC-648F-4583-8381-A457B3BAD71F}">
+  <dimension ref="A1:D287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -600,10 +1413,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11001</v>
       </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
@@ -611,10 +1427,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11002</v>
       </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -622,10 +1441,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11004</v>
       </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -633,10 +1455,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11005</v>
       </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -644,20 +1469,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11007</v>
+        <v>11008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11008</v>
+        <v>11009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -666,64 +1497,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11009</v>
+        <v>11013</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>11013</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>11018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>11016</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11018</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11021</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11022</v>
+        <v>11023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -732,20 +1581,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11023</v>
+        <v>11024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11024</v>
+        <v>11025</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -754,9 +1609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11025</v>
+        <v>11029</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -765,42 +1623,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11029</v>
+        <v>11030</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11030</v>
+        <v>11035</v>
+      </c>
+      <c r="B18" t="s">
+        <v>260</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11037</v>
+      </c>
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11035</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11037</v>
+        <v>11038</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -809,20 +1679,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11038</v>
+        <v>11039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11039</v>
+        <v>11040</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -831,9 +1707,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11040</v>
+        <v>11044</v>
+      </c>
+      <c r="B23" t="s">
+        <v>284</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -842,9 +1721,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>11044</v>
+        <v>11050</v>
+      </c>
+      <c r="B24" t="s">
+        <v>316</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -853,9 +1735,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11050</v>
+        <v>11052</v>
+      </c>
+      <c r="B25" t="s">
+        <v>319</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -864,9 +1749,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>11052</v>
+        <v>11053</v>
+      </c>
+      <c r="B26" t="s">
+        <v>321</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -875,9 +1763,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11053</v>
+        <v>11054</v>
+      </c>
+      <c r="B27" t="s">
+        <v>322</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -886,9 +1777,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11054</v>
+        <v>11055</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -897,9 +1791,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11055</v>
+        <v>11057</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -908,20 +1805,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11056</v>
+        <v>12002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11057</v>
+        <v>12005</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -930,64 +1833,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>12002</v>
+        <v>12007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
       </c>
       <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>12005</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12021</v>
+      </c>
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" t="s">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>12007</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>12009</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12014</v>
+        <v>12025</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>12021</v>
+        <v>12026</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -996,75 +1917,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>12025</v>
+        <v>12029</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>12026</v>
+        <v>12035</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
       </c>
       <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>12040</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>12041</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>13001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>12029</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>13002</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>12035</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>12040</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>12041</v>
-      </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>13001</v>
+        <v>13003</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -1073,9 +2015,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13002</v>
+        <v>13004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -1084,9 +2029,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13003</v>
+        <v>13006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -1095,9 +2043,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>13004</v>
+        <v>13008</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -1106,9 +2057,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>13006</v>
+        <v>13010</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -1117,9 +2071,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>13008</v>
+        <v>13011</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -1128,9 +2085,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>13010</v>
+        <v>13012</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -1139,9 +2099,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>13011</v>
+        <v>13013</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -1150,9 +2113,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13012</v>
+        <v>13014</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -1161,9 +2127,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>13013</v>
+        <v>13016</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -1172,9 +2141,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>13014</v>
+        <v>13017</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -1183,9 +2155,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>13016</v>
+        <v>13019</v>
+      </c>
+      <c r="B55" t="s">
+        <v>205</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -1194,9 +2169,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>13017</v>
+        <v>13021</v>
+      </c>
+      <c r="B56" t="s">
+        <v>223</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -1205,9 +2183,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>13019</v>
+        <v>13023</v>
+      </c>
+      <c r="B57" t="s">
+        <v>228</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -1216,9 +2197,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>13021</v>
+        <v>13025</v>
+      </c>
+      <c r="B58" t="s">
+        <v>231</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -1227,9 +2211,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>13023</v>
+        <v>13029</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -1238,9 +2225,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>13025</v>
+        <v>13031</v>
+      </c>
+      <c r="B60" t="s">
+        <v>247</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -1249,9 +2239,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>13029</v>
+        <v>13035</v>
+      </c>
+      <c r="B61" t="s">
+        <v>261</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -1260,9 +2253,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>13031</v>
+        <v>13036</v>
+      </c>
+      <c r="B62" t="s">
+        <v>262</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -1271,9 +2267,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>13035</v>
+        <v>13037</v>
+      </c>
+      <c r="B63" t="s">
+        <v>264</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -1282,9 +2281,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13036</v>
+        <v>13040</v>
+      </c>
+      <c r="B64" t="s">
+        <v>298</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -1293,9 +2295,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>13037</v>
+        <v>13044</v>
+      </c>
+      <c r="B65" t="s">
+        <v>303</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -1304,9 +2309,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>13040</v>
+        <v>13046</v>
+      </c>
+      <c r="B66" t="s">
+        <v>304</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -1315,9 +2323,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>13044</v>
+        <v>13049</v>
+      </c>
+      <c r="B67" t="s">
+        <v>310</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -1326,9 +2337,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>13046</v>
+        <v>13053</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -1337,31 +2351,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>13049</v>
+        <v>23002</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>13053</v>
+        <v>23003</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>23002</v>
+        <v>23009</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
       </c>
       <c r="C71" t="s">
         <v>30</v>
@@ -1370,9 +2393,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>23003</v>
+        <v>23016</v>
+      </c>
+      <c r="B72" t="s">
+        <v>112</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -1381,9 +2407,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>23009</v>
+        <v>23025</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -1392,9 +2421,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>23016</v>
+        <v>23027</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -1403,9 +2435,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>23023</v>
+        <v>23033</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -1414,9 +2449,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>23024</v>
+        <v>23038</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -1425,9 +2463,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>23025</v>
+        <v>23039</v>
+      </c>
+      <c r="B77" t="s">
+        <v>170</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
@@ -1436,9 +2477,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>23027</v>
+        <v>23044</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
@@ -1447,9 +2491,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>23032</v>
+        <v>23045</v>
+      </c>
+      <c r="B79" t="s">
+        <v>213</v>
       </c>
       <c r="C79" t="s">
         <v>30</v>
@@ -1458,9 +2505,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>23033</v>
+        <v>23047</v>
+      </c>
+      <c r="B80" t="s">
+        <v>219</v>
       </c>
       <c r="C80" t="s">
         <v>30</v>
@@ -1469,9 +2519,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>23038</v>
+        <v>23050</v>
+      </c>
+      <c r="B81" t="s">
+        <v>224</v>
       </c>
       <c r="C81" t="s">
         <v>30</v>
@@ -1480,9 +2533,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>23039</v>
+        <v>23052</v>
+      </c>
+      <c r="B82" t="s">
+        <v>226</v>
       </c>
       <c r="C82" t="s">
         <v>30</v>
@@ -1491,9 +2547,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>23044</v>
+        <v>23060</v>
+      </c>
+      <c r="B83" t="s">
+        <v>245</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
@@ -1502,9 +2561,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>23045</v>
+        <v>23062</v>
+      </c>
+      <c r="B84" t="s">
+        <v>251</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
@@ -1513,9 +2575,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>23047</v>
+        <v>23064</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -1524,9 +2589,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>23050</v>
+        <v>23077</v>
+      </c>
+      <c r="B86" t="s">
+        <v>281</v>
       </c>
       <c r="C86" t="s">
         <v>30</v>
@@ -1535,9 +2603,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>23052</v>
+        <v>23081</v>
+      </c>
+      <c r="B87" t="s">
+        <v>286</v>
       </c>
       <c r="C87" t="s">
         <v>30</v>
@@ -1546,9 +2617,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>23060</v>
+        <v>23086</v>
+      </c>
+      <c r="B88" t="s">
+        <v>289</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -1557,9 +2631,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>23062</v>
+        <v>23088</v>
+      </c>
+      <c r="B89" t="s">
+        <v>300</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
@@ -1568,9 +2645,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>23064</v>
+        <v>23094</v>
+      </c>
+      <c r="B90" t="s">
+        <v>323</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
@@ -1579,9 +2659,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>23077</v>
+        <v>23096</v>
+      </c>
+      <c r="B91" t="s">
+        <v>327</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
@@ -1590,9 +2673,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>23081</v>
+        <v>23097</v>
+      </c>
+      <c r="B92" t="s">
+        <v>267</v>
       </c>
       <c r="C92" t="s">
         <v>30</v>
@@ -1601,9 +2687,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>23086</v>
+        <v>23098</v>
+      </c>
+      <c r="B93" t="s">
+        <v>114</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -1612,9 +2701,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23088</v>
+        <v>23099</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -1623,9 +2715,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>23094</v>
+        <v>23100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
@@ -1634,9 +2729,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>23096</v>
+        <v>23101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
@@ -1645,9 +2743,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>23097</v>
+        <v>23102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>308</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
@@ -1656,9 +2757,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>23098</v>
+        <v>23103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>313</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -1667,9 +2771,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>23099</v>
+        <v>23104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -1678,9 +2785,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>23100</v>
+        <v>23105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -1689,9 +2799,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>23101</v>
+        <v>23106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>252</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -1700,42 +2813,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>23102</v>
+        <v>24001</v>
+      </c>
+      <c r="B102" t="s">
+        <v>56</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>23103</v>
+        <v>24007</v>
+      </c>
+      <c r="B103" t="s">
+        <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>23104</v>
+        <v>24008</v>
+      </c>
+      <c r="B104" t="s">
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>23105</v>
+        <v>24009</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -1744,9 +2869,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>24001</v>
+        <v>24011</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
       </c>
       <c r="C106" t="s">
         <v>31</v>
@@ -1755,20 +2883,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>24007</v>
+        <v>24014</v>
+      </c>
+      <c r="B107" t="s">
+        <v>89</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>24008</v>
+        <v>24016</v>
+      </c>
+      <c r="B108" t="s">
+        <v>91</v>
       </c>
       <c r="C108" t="s">
         <v>31</v>
@@ -1777,20 +2911,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24009</v>
+        <v>24020</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>24011</v>
+        <v>24028</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -1799,9 +2939,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>24014</v>
+        <v>24033</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
       </c>
       <c r="C111" t="s">
         <v>30</v>
@@ -1810,20 +2953,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>24016</v>
+        <v>24038</v>
+      </c>
+      <c r="B112" t="s">
+        <v>143</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>24020</v>
+        <v>24041</v>
+      </c>
+      <c r="B113" t="s">
+        <v>152</v>
       </c>
       <c r="C113" t="s">
         <v>31</v>
@@ -1832,9 +2981,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>24028</v>
+        <v>24043</v>
+      </c>
+      <c r="B114" t="s">
+        <v>154</v>
       </c>
       <c r="C114" t="s">
         <v>31</v>
@@ -1843,9 +2995,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>24033</v>
+        <v>24045</v>
+      </c>
+      <c r="B115" t="s">
+        <v>161</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
@@ -1854,9 +3009,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>24038</v>
+        <v>24048</v>
+      </c>
+      <c r="B116" t="s">
+        <v>174</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
@@ -1865,9 +3023,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>24041</v>
+        <v>24054</v>
+      </c>
+      <c r="B117" t="s">
+        <v>182</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -1876,42 +3037,54 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>24043</v>
+        <v>24055</v>
+      </c>
+      <c r="B118" t="s">
+        <v>183</v>
       </c>
       <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>24059</v>
+      </c>
+      <c r="B119" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" t="s">
         <v>31</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>24045</v>
-      </c>
-      <c r="C119" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>24048</v>
+        <v>24062</v>
+      </c>
+      <c r="B120" t="s">
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>24054</v>
+        <v>24066</v>
+      </c>
+      <c r="B121" t="s">
+        <v>214</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -1920,9 +3093,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>24055</v>
+        <v>24086</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
       </c>
       <c r="C122" t="s">
         <v>30</v>
@@ -1931,9 +3107,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>24059</v>
+        <v>24094</v>
+      </c>
+      <c r="B123" t="s">
+        <v>268</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
@@ -1942,20 +3121,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>24062</v>
+        <v>24104</v>
+      </c>
+      <c r="B124" t="s">
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>24066</v>
+        <v>24107</v>
+      </c>
+      <c r="B125" t="s">
+        <v>294</v>
       </c>
       <c r="C125" t="s">
         <v>31</v>
@@ -1964,20 +3149,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>24086</v>
+        <v>24109</v>
+      </c>
+      <c r="B126" t="s">
+        <v>297</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>24094</v>
+        <v>24130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>332</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
@@ -1986,20 +3177,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>24104</v>
+        <v>24133</v>
+      </c>
+      <c r="B128" t="s">
+        <v>208</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>24107</v>
+        <v>24134</v>
+      </c>
+      <c r="B129" t="s">
+        <v>271</v>
       </c>
       <c r="C129" t="s">
         <v>31</v>
@@ -2008,9 +3205,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>24109</v>
+        <v>24135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>293</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -2019,9 +3219,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>24130</v>
+        <v>24137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
@@ -2030,53 +3233,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>24133</v>
+        <v>31003</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>24134</v>
+        <v>31004</v>
+      </c>
+      <c r="B133" t="s">
+        <v>84</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>24135</v>
+        <v>31005</v>
+      </c>
+      <c r="B134" t="s">
+        <v>97</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>24137</v>
+        <v>31006</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>31003</v>
+        <v>31012</v>
+      </c>
+      <c r="B136" t="s">
+        <v>167</v>
       </c>
       <c r="C136" t="s">
         <v>33</v>
@@ -2085,31 +3303,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>31004</v>
+        <v>31022</v>
+      </c>
+      <c r="B137" t="s">
+        <v>243</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>31005</v>
+        <v>31033</v>
+      </c>
+      <c r="B138" t="s">
+        <v>296</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D138" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>31006</v>
+        <v>31040</v>
+      </c>
+      <c r="B139" t="s">
+        <v>324</v>
       </c>
       <c r="C139" t="s">
         <v>33</v>
@@ -2118,9 +3345,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>31012</v>
+        <v>31042</v>
+      </c>
+      <c r="B140" t="s">
+        <v>333</v>
       </c>
       <c r="C140" t="s">
         <v>33</v>
@@ -2129,64 +3359,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>31022</v>
+        <v>31043</v>
+      </c>
+      <c r="B141" t="s">
+        <v>177</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>31033</v>
+        <v>32003</v>
+      </c>
+      <c r="B142" t="s">
+        <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>31040</v>
+        <v>32006</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>31042</v>
+        <v>32010</v>
+      </c>
+      <c r="B144" t="s">
+        <v>178</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>31043</v>
+        <v>32011</v>
+      </c>
+      <c r="B145" t="s">
+        <v>181</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D145" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>32003</v>
+        <v>32030</v>
+      </c>
+      <c r="B146" t="s">
+        <v>209</v>
       </c>
       <c r="C146" t="s">
         <v>36</v>
@@ -2195,9 +3443,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>32006</v>
+        <v>33011</v>
+      </c>
+      <c r="B147" t="s">
+        <v>164</v>
       </c>
       <c r="C147" t="s">
         <v>36</v>
@@ -2206,9 +3457,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>32010</v>
+        <v>33016</v>
+      </c>
+      <c r="B148" t="s">
+        <v>229</v>
       </c>
       <c r="C148" t="s">
         <v>36</v>
@@ -2217,9 +3471,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>32011</v>
+        <v>33021</v>
+      </c>
+      <c r="B149" t="s">
+        <v>257</v>
       </c>
       <c r="C149" t="s">
         <v>36</v>
@@ -2228,20 +3485,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>32030</v>
+        <v>33029</v>
+      </c>
+      <c r="B150" t="s">
+        <v>309</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>33011</v>
+        <v>33037</v>
+      </c>
+      <c r="B151" t="s">
+        <v>330</v>
       </c>
       <c r="C151" t="s">
         <v>36</v>
@@ -2250,9 +3513,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>33016</v>
+        <v>33039</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>36</v>
@@ -2261,9 +3527,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>33021</v>
+        <v>33040</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
       </c>
       <c r="C153" t="s">
         <v>36</v>
@@ -2272,64 +3541,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>33029</v>
+        <v>33041</v>
+      </c>
+      <c r="B154" t="s">
+        <v>301</v>
       </c>
       <c r="C154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>34002</v>
+      </c>
+      <c r="B155" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155" t="s">
         <v>37</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>33037</v>
-      </c>
-      <c r="C155" t="s">
-        <v>36</v>
-      </c>
-      <c r="D155" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>33039</v>
+        <v>34003</v>
+      </c>
+      <c r="B156" t="s">
+        <v>68</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>33040</v>
+        <v>34009</v>
+      </c>
+      <c r="B157" t="s">
+        <v>102</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>33041</v>
+        <v>34013</v>
+      </c>
+      <c r="B158" t="s">
+        <v>138</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>34002</v>
+        <v>34022</v>
+      </c>
+      <c r="B159" t="s">
+        <v>184</v>
       </c>
       <c r="C159" t="s">
         <v>37</v>
@@ -2338,9 +3625,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>34003</v>
+        <v>34023</v>
+      </c>
+      <c r="B160" t="s">
+        <v>187</v>
       </c>
       <c r="C160" t="s">
         <v>37</v>
@@ -2349,9 +3639,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>34009</v>
+        <v>34025</v>
+      </c>
+      <c r="B161" t="s">
+        <v>196</v>
       </c>
       <c r="C161" t="s">
         <v>37</v>
@@ -2360,9 +3653,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>34013</v>
+        <v>34027</v>
+      </c>
+      <c r="B162" t="s">
+        <v>225</v>
       </c>
       <c r="C162" t="s">
         <v>37</v>
@@ -2371,9 +3667,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>34022</v>
+        <v>34040</v>
+      </c>
+      <c r="B163" t="s">
+        <v>306</v>
       </c>
       <c r="C163" t="s">
         <v>37</v>
@@ -2382,9 +3681,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>34023</v>
+        <v>34041</v>
+      </c>
+      <c r="B164" t="s">
+        <v>312</v>
       </c>
       <c r="C164" t="s">
         <v>37</v>
@@ -2393,9 +3695,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>34025</v>
+        <v>34042</v>
+      </c>
+      <c r="B165" t="s">
+        <v>337</v>
       </c>
       <c r="C165" t="s">
         <v>37</v>
@@ -2404,9 +3709,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>34027</v>
+        <v>34043</v>
+      </c>
+      <c r="B166" t="s">
+        <v>283</v>
       </c>
       <c r="C166" t="s">
         <v>37</v>
@@ -2415,53 +3723,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>34040</v>
+        <v>35002</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
       </c>
       <c r="C167" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>34041</v>
+        <v>35005</v>
+      </c>
+      <c r="B168" t="s">
+        <v>128</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>34042</v>
+        <v>35006</v>
+      </c>
+      <c r="B169" t="s">
+        <v>163</v>
       </c>
       <c r="C169" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>34043</v>
+        <v>35011</v>
+      </c>
+      <c r="B170" t="s">
+        <v>230</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>35002</v>
+        <v>35013</v>
+      </c>
+      <c r="B171" t="s">
+        <v>241</v>
       </c>
       <c r="C171" t="s">
         <v>34</v>
@@ -2470,9 +3793,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>35005</v>
+        <v>35014</v>
+      </c>
+      <c r="B172" t="s">
+        <v>249</v>
       </c>
       <c r="C172" t="s">
         <v>33</v>
@@ -2481,75 +3807,96 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>35006</v>
+        <v>35029</v>
+      </c>
+      <c r="B173" t="s">
+        <v>100</v>
       </c>
       <c r="C173" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>36006</v>
+      </c>
+      <c r="B174" t="s">
+        <v>155</v>
+      </c>
+      <c r="C174" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>36007</v>
+      </c>
+      <c r="B175" t="s">
+        <v>165</v>
+      </c>
+      <c r="C175" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>36008</v>
+      </c>
+      <c r="B176" t="s">
+        <v>166</v>
+      </c>
+      <c r="C176" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>36010</v>
+      </c>
+      <c r="B177" t="s">
+        <v>195</v>
+      </c>
+      <c r="C177" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>36011</v>
+      </c>
+      <c r="B178" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" t="s">
         <v>33</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D178" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>35011</v>
-      </c>
-      <c r="C174" t="s">
-        <v>34</v>
-      </c>
-      <c r="D174" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>35013</v>
-      </c>
-      <c r="C175" t="s">
-        <v>34</v>
-      </c>
-      <c r="D175" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>35014</v>
-      </c>
-      <c r="C176" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>35029</v>
-      </c>
-      <c r="C177" t="s">
-        <v>34</v>
-      </c>
-      <c r="D177" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>36006</v>
-      </c>
-      <c r="C178" t="s">
-        <v>36</v>
-      </c>
-      <c r="D178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>36007</v>
+        <v>36012</v>
+      </c>
+      <c r="B179" t="s">
+        <v>232</v>
       </c>
       <c r="C179" t="s">
         <v>37</v>
@@ -2558,9 +3905,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>36008</v>
+        <v>36015</v>
+      </c>
+      <c r="B180" t="s">
+        <v>265</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -2569,31 +3919,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>36010</v>
+        <v>36019</v>
+      </c>
+      <c r="B181" t="s">
+        <v>285</v>
       </c>
       <c r="C181" t="s">
+        <v>36</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>37002</v>
+      </c>
+      <c r="B182" t="s">
+        <v>106</v>
+      </c>
+      <c r="C182" t="s">
         <v>37</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>36011</v>
-      </c>
-      <c r="C182" t="s">
-        <v>33</v>
-      </c>
-      <c r="D182" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>36012</v>
+        <v>37010</v>
+      </c>
+      <c r="B183" t="s">
+        <v>244</v>
       </c>
       <c r="C183" t="s">
         <v>37</v>
@@ -2602,185 +3961,236 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>36015</v>
+        <v>37011</v>
+      </c>
+      <c r="B184" t="s">
+        <v>256</v>
       </c>
       <c r="C184" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>37017</v>
+      </c>
+      <c r="B185" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" t="s">
         <v>37</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>36019</v>
-      </c>
-      <c r="C185" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>37020</v>
+      </c>
+      <c r="B186" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>37021</v>
+      </c>
+      <c r="B187" t="s">
+        <v>318</v>
+      </c>
+      <c r="C187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>37022</v>
+      </c>
+      <c r="B188" t="s">
+        <v>292</v>
+      </c>
+      <c r="C188" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>38002</v>
+      </c>
+      <c r="B189" t="s">
+        <v>60</v>
+      </c>
+      <c r="C189" t="s">
         <v>36</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D189" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>37002</v>
-      </c>
-      <c r="C186" t="s">
-        <v>37</v>
-      </c>
-      <c r="D186" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>37007</v>
-      </c>
-      <c r="C187" t="s">
-        <v>37</v>
-      </c>
-      <c r="D187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>37010</v>
-      </c>
-      <c r="C188" t="s">
-        <v>37</v>
-      </c>
-      <c r="D188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>37011</v>
-      </c>
-      <c r="C189" t="s">
-        <v>33</v>
-      </c>
-      <c r="D189" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>37012</v>
+        <v>38008</v>
+      </c>
+      <c r="B190" t="s">
+        <v>101</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>37015</v>
+        <v>38014</v>
+      </c>
+      <c r="B191" t="s">
+        <v>179</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>37017</v>
+        <v>38016</v>
+      </c>
+      <c r="B192" t="s">
+        <v>237</v>
       </c>
       <c r="C192" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>37018</v>
+        <v>38025</v>
+      </c>
+      <c r="B193" t="s">
+        <v>299</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>37020</v>
+        <v>41002</v>
+      </c>
+      <c r="B194" t="s">
+        <v>54</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>38002</v>
+        <v>41011</v>
+      </c>
+      <c r="B195" t="s">
+        <v>104</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>38008</v>
+        <v>41018</v>
+      </c>
+      <c r="B196" t="s">
+        <v>126</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D196" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>38014</v>
+        <v>41024</v>
+      </c>
+      <c r="B197" t="s">
+        <v>133</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D197" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>38016</v>
+        <v>41027</v>
+      </c>
+      <c r="B198" t="s">
+        <v>149</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D198" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>38025</v>
+        <v>41034</v>
+      </c>
+      <c r="B199" t="s">
+        <v>194</v>
       </c>
       <c r="C199" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D199" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>41002</v>
+        <v>41048</v>
+      </c>
+      <c r="B200" t="s">
+        <v>239</v>
       </c>
       <c r="C200" t="s">
         <v>38</v>
@@ -2789,20 +4199,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>41011</v>
+        <v>41063</v>
+      </c>
+      <c r="B201" t="s">
+        <v>278</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>41018</v>
+        <v>41081</v>
+      </c>
+      <c r="B202" t="s">
+        <v>331</v>
       </c>
       <c r="C202" t="s">
         <v>39</v>
@@ -2811,9 +4227,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>41024</v>
+        <v>41082</v>
+      </c>
+      <c r="B203" t="s">
+        <v>118</v>
       </c>
       <c r="C203" t="s">
         <v>38</v>
@@ -2822,20 +4241,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>41027</v>
+        <v>42003</v>
+      </c>
+      <c r="B204" t="s">
+        <v>78</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>41034</v>
+        <v>42004</v>
+      </c>
+      <c r="B205" t="s">
+        <v>98</v>
       </c>
       <c r="C205" t="s">
         <v>38</v>
@@ -2844,9 +4269,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>41048</v>
+        <v>42006</v>
+      </c>
+      <c r="B206" t="s">
+        <v>105</v>
       </c>
       <c r="C206" t="s">
         <v>38</v>
@@ -2855,31 +4283,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>41063</v>
+        <v>42008</v>
+      </c>
+      <c r="B207" t="s">
+        <v>136</v>
       </c>
       <c r="C207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>41081</v>
+        <v>42010</v>
+      </c>
+      <c r="B208" t="s">
+        <v>189</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>41082</v>
+        <v>42011</v>
+      </c>
+      <c r="B209" t="s">
+        <v>193</v>
       </c>
       <c r="C209" t="s">
         <v>38</v>
@@ -2888,20 +4325,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>42003</v>
+        <v>42023</v>
+      </c>
+      <c r="B210" t="s">
+        <v>305</v>
       </c>
       <c r="C210" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D210" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>42004</v>
+        <v>42025</v>
+      </c>
+      <c r="B211" t="s">
+        <v>311</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -2910,9 +4353,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>42006</v>
+        <v>42026</v>
+      </c>
+      <c r="B212" t="s">
+        <v>314</v>
       </c>
       <c r="C212" t="s">
         <v>38</v>
@@ -2921,9 +4367,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>42008</v>
+        <v>42028</v>
+      </c>
+      <c r="B213" t="s">
+        <v>325</v>
       </c>
       <c r="C213" t="s">
         <v>38</v>
@@ -2932,86 +4381,110 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>42010</v>
+        <v>43002</v>
+      </c>
+      <c r="B214" t="s">
+        <v>67</v>
       </c>
       <c r="C214" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>43005</v>
+      </c>
+      <c r="B215" t="s">
+        <v>117</v>
+      </c>
+      <c r="C215" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>43007</v>
+      </c>
+      <c r="B216" t="s">
+        <v>172</v>
+      </c>
+      <c r="C216" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>43010</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>43014</v>
+      </c>
+      <c r="B218" t="s">
+        <v>277</v>
+      </c>
+      <c r="C218" t="s">
+        <v>41</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>43018</v>
+      </c>
+      <c r="B219" t="s">
+        <v>326</v>
+      </c>
+      <c r="C219" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>44013</v>
+      </c>
+      <c r="B220" t="s">
+        <v>108</v>
+      </c>
+      <c r="C220" t="s">
         <v>38</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D220" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>42011</v>
-      </c>
-      <c r="C215" t="s">
-        <v>38</v>
-      </c>
-      <c r="D215" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>42023</v>
-      </c>
-      <c r="C216" t="s">
-        <v>40</v>
-      </c>
-      <c r="D216" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>42025</v>
-      </c>
-      <c r="C217" t="s">
-        <v>38</v>
-      </c>
-      <c r="D217" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>42026</v>
-      </c>
-      <c r="C218" t="s">
-        <v>38</v>
-      </c>
-      <c r="D218" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>42028</v>
-      </c>
-      <c r="C219" t="s">
-        <v>38</v>
-      </c>
-      <c r="D219" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>43002</v>
-      </c>
-      <c r="C220" t="s">
-        <v>41</v>
-      </c>
-      <c r="D220" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>43005</v>
+        <v>44019</v>
+      </c>
+      <c r="B221" t="s">
+        <v>120</v>
       </c>
       <c r="C221" t="s">
         <v>41</v>
@@ -3020,53 +4493,68 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>43007</v>
+        <v>44020</v>
+      </c>
+      <c r="B222" t="s">
+        <v>121</v>
       </c>
       <c r="C222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>43010</v>
+        <v>44021</v>
+      </c>
+      <c r="B223" t="s">
+        <v>125</v>
       </c>
       <c r="C223" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>43014</v>
+        <v>44052</v>
+      </c>
+      <c r="B224" t="s">
+        <v>242</v>
       </c>
       <c r="C224" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>43018</v>
+        <v>44064</v>
+      </c>
+      <c r="B225" t="s">
+        <v>279</v>
       </c>
       <c r="C225" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D225" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>44012</v>
+        <v>44081</v>
+      </c>
+      <c r="B226" t="s">
+        <v>334</v>
       </c>
       <c r="C226" t="s">
         <v>42</v>
@@ -3075,20 +4563,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>44013</v>
+        <v>44083</v>
+      </c>
+      <c r="B227" t="s">
+        <v>103</v>
       </c>
       <c r="C227" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>44019</v>
+        <v>44084</v>
+      </c>
+      <c r="B228" t="s">
+        <v>55</v>
       </c>
       <c r="C228" t="s">
         <v>41</v>
@@ -3097,31 +4591,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>44020</v>
+        <v>44085</v>
+      </c>
+      <c r="B229" t="s">
+        <v>204</v>
       </c>
       <c r="C229" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>44021</v>
+        <v>44086</v>
+      </c>
+      <c r="B230" t="s">
+        <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D230" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>44034</v>
+        <v>44087</v>
+      </c>
+      <c r="B231" t="s">
+        <v>210</v>
       </c>
       <c r="C231" t="s">
         <v>40</v>
@@ -3130,9 +4633,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>44040</v>
+        <v>44088</v>
+      </c>
+      <c r="B232" t="s">
+        <v>227</v>
       </c>
       <c r="C232" t="s">
         <v>38</v>
@@ -3141,42 +4647,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>44043</v>
+        <v>45035</v>
+      </c>
+      <c r="B233" t="s">
+        <v>248</v>
       </c>
       <c r="C233" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>44045</v>
+        <v>45041</v>
+      </c>
+      <c r="B234" t="s">
+        <v>266</v>
       </c>
       <c r="C234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D234" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>44048</v>
+        <v>45059</v>
+      </c>
+      <c r="B235" t="s">
+        <v>92</v>
       </c>
       <c r="C235" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>44052</v>
+        <v>45060</v>
+      </c>
+      <c r="B236" t="s">
+        <v>176</v>
       </c>
       <c r="C236" t="s">
         <v>39</v>
@@ -3185,262 +4703,334 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>44064</v>
+        <v>45061</v>
+      </c>
+      <c r="B237" t="s">
+        <v>320</v>
       </c>
       <c r="C237" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D237" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>44073</v>
+        <v>45062</v>
+      </c>
+      <c r="B238" t="s">
+        <v>157</v>
       </c>
       <c r="C238" t="s">
+        <v>39</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>45063</v>
+      </c>
+      <c r="B239" t="s">
+        <v>203</v>
+      </c>
+      <c r="C239" t="s">
+        <v>39</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>45064</v>
+      </c>
+      <c r="B240" t="s">
+        <v>216</v>
+      </c>
+      <c r="C240" t="s">
+        <v>39</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>45065</v>
+      </c>
+      <c r="B241" t="s">
+        <v>336</v>
+      </c>
+      <c r="C241" t="s">
+        <v>39</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>45068</v>
+      </c>
+      <c r="B242" t="s">
+        <v>186</v>
+      </c>
+      <c r="C242" t="s">
+        <v>39</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>46020</v>
+      </c>
+      <c r="B243" t="s">
+        <v>275</v>
+      </c>
+      <c r="C243" t="s">
         <v>40</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D243" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>44081</v>
-      </c>
-      <c r="C239" t="s">
-        <v>42</v>
-      </c>
-      <c r="D239" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>44083</v>
-      </c>
-      <c r="C240" t="s">
-        <v>42</v>
-      </c>
-      <c r="D240" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>44084</v>
-      </c>
-      <c r="C241" t="s">
-        <v>41</v>
-      </c>
-      <c r="D241" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>44085</v>
-      </c>
-      <c r="C242" t="s">
-        <v>41</v>
-      </c>
-      <c r="D242" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>45035</v>
-      </c>
-      <c r="C243" t="s">
-        <v>39</v>
-      </c>
-      <c r="D243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>45041</v>
+        <v>46021</v>
+      </c>
+      <c r="B244" t="s">
+        <v>280</v>
       </c>
       <c r="C244" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>45059</v>
+        <v>46024</v>
+      </c>
+      <c r="B245" t="s">
+        <v>287</v>
       </c>
       <c r="C245" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D245" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>45060</v>
+        <v>46025</v>
+      </c>
+      <c r="B246" t="s">
+        <v>288</v>
       </c>
       <c r="C246" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>45061</v>
+        <v>46029</v>
+      </c>
+      <c r="B247" t="s">
+        <v>211</v>
       </c>
       <c r="C247" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>45062</v>
+        <v>46030</v>
+      </c>
+      <c r="B248" t="s">
+        <v>81</v>
       </c>
       <c r="C248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>45063</v>
+        <v>71002</v>
+      </c>
+      <c r="B249" t="s">
+        <v>65</v>
       </c>
       <c r="C249" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>45064</v>
+        <v>71004</v>
+      </c>
+      <c r="B250" t="s">
+        <v>76</v>
       </c>
       <c r="C250" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>45065</v>
+        <v>71011</v>
+      </c>
+      <c r="B251" t="s">
+        <v>109</v>
       </c>
       <c r="C251" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>45068</v>
+        <v>71016</v>
+      </c>
+      <c r="B252" t="s">
+        <v>124</v>
       </c>
       <c r="C252" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>46003</v>
+        <v>71017</v>
+      </c>
+      <c r="B253" t="s">
+        <v>127</v>
       </c>
       <c r="C253" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D253" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>46013</v>
+        <v>71020</v>
+      </c>
+      <c r="B254" t="s">
+        <v>134</v>
       </c>
       <c r="C254" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D254" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>46014</v>
+        <v>71024</v>
+      </c>
+      <c r="B255" t="s">
+        <v>146</v>
       </c>
       <c r="C255" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D255" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>46020</v>
+        <v>71034</v>
+      </c>
+      <c r="B256" t="s">
+        <v>198</v>
       </c>
       <c r="C256" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D256" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>46021</v>
+        <v>71037</v>
+      </c>
+      <c r="B257" t="s">
+        <v>215</v>
       </c>
       <c r="C257" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>46024</v>
+        <v>71045</v>
+      </c>
+      <c r="B258" t="s">
+        <v>236</v>
       </c>
       <c r="C258" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>46025</v>
+        <v>71053</v>
+      </c>
+      <c r="B259" t="s">
+        <v>282</v>
       </c>
       <c r="C259" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D259" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>71002</v>
+        <v>71066</v>
+      </c>
+      <c r="B260" t="s">
+        <v>329</v>
       </c>
       <c r="C260" t="s">
         <v>44</v>
@@ -3449,9 +5039,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>71004</v>
+        <v>71067</v>
+      </c>
+      <c r="B261" t="s">
+        <v>335</v>
       </c>
       <c r="C261" t="s">
         <v>44</v>
@@ -3460,20 +5053,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>71011</v>
+        <v>71070</v>
+      </c>
+      <c r="B262" t="s">
+        <v>150</v>
       </c>
       <c r="C262" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D262" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>71016</v>
+        <v>71071</v>
+      </c>
+      <c r="B263" t="s">
+        <v>291</v>
       </c>
       <c r="C263" t="s">
         <v>44</v>
@@ -3482,20 +5081,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>71017</v>
+        <v>71072</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D264" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>71020</v>
+        <v>72003</v>
+      </c>
+      <c r="B265" t="s">
+        <v>85</v>
       </c>
       <c r="C265" t="s">
         <v>44</v>
@@ -3504,31 +5109,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>71022</v>
+        <v>72004</v>
+      </c>
+      <c r="B266" t="s">
+        <v>96</v>
       </c>
       <c r="C266" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>71024</v>
+        <v>72018</v>
+      </c>
+      <c r="B267" t="s">
+        <v>175</v>
       </c>
       <c r="C267" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>71034</v>
+        <v>72020</v>
+      </c>
+      <c r="B268" t="s">
+        <v>212</v>
       </c>
       <c r="C268" t="s">
         <v>44</v>
@@ -3537,42 +5151,54 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>71037</v>
+        <v>72021</v>
+      </c>
+      <c r="B269" t="s">
+        <v>217</v>
       </c>
       <c r="C269" t="s">
+        <v>47</v>
+      </c>
+      <c r="D269" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>72030</v>
+      </c>
+      <c r="B270" t="s">
+        <v>253</v>
+      </c>
+      <c r="C270" t="s">
         <v>44</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D270" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>71045</v>
-      </c>
-      <c r="C270" t="s">
-        <v>45</v>
-      </c>
-      <c r="D270" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>71053</v>
+        <v>72037</v>
+      </c>
+      <c r="B271" t="s">
+        <v>137</v>
       </c>
       <c r="C271" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D271" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>71057</v>
+        <v>72038</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
       </c>
       <c r="C272" t="s">
         <v>44</v>
@@ -3581,9 +5207,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>71066</v>
+        <v>72039</v>
+      </c>
+      <c r="B273" t="s">
+        <v>158</v>
       </c>
       <c r="C273" t="s">
         <v>44</v>
@@ -3592,20 +5221,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>71067</v>
+        <v>72041</v>
+      </c>
+      <c r="B274" t="s">
+        <v>113</v>
       </c>
       <c r="C274" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D274" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>71069</v>
+        <v>72042</v>
+      </c>
+      <c r="B275" t="s">
+        <v>250</v>
       </c>
       <c r="C275" t="s">
         <v>44</v>
@@ -3614,9 +5249,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>71070</v>
+        <v>72043</v>
+      </c>
+      <c r="B276" t="s">
+        <v>254</v>
       </c>
       <c r="C276" t="s">
         <v>44</v>
@@ -3625,298 +5263,161 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>72003</v>
+        <v>73001</v>
+      </c>
+      <c r="B277" t="s">
+        <v>59</v>
       </c>
       <c r="C277" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D277" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>72004</v>
+        <v>73022</v>
+      </c>
+      <c r="B278" t="s">
+        <v>140</v>
       </c>
       <c r="C278" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D278" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>72018</v>
+        <v>73028</v>
+      </c>
+      <c r="B279" t="s">
+        <v>148</v>
       </c>
       <c r="C279" t="s">
+        <v>45</v>
+      </c>
+      <c r="D279" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>73042</v>
+      </c>
+      <c r="B280" t="s">
+        <v>190</v>
+      </c>
+      <c r="C280" t="s">
         <v>47</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D280" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>72020</v>
-      </c>
-      <c r="C280" t="s">
-        <v>44</v>
-      </c>
-      <c r="D280" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>72021</v>
+        <v>73066</v>
+      </c>
+      <c r="B281" t="s">
+        <v>263</v>
       </c>
       <c r="C281" t="s">
+        <v>45</v>
+      </c>
+      <c r="D281" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>73098</v>
+      </c>
+      <c r="B282" t="s">
+        <v>307</v>
+      </c>
+      <c r="C282" t="s">
+        <v>45</v>
+      </c>
+      <c r="D282" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>73107</v>
+      </c>
+      <c r="B283" t="s">
+        <v>218</v>
+      </c>
+      <c r="C283" t="s">
         <v>47</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D283" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>72030</v>
-      </c>
-      <c r="C282" t="s">
-        <v>44</v>
-      </c>
-      <c r="D282" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>72037</v>
-      </c>
-      <c r="C283" t="s">
-        <v>44</v>
-      </c>
-      <c r="D283" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>72038</v>
+        <v>73109</v>
+      </c>
+      <c r="B284" t="s">
+        <v>302</v>
       </c>
       <c r="C284" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D284" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>72039</v>
+        <v>73110</v>
+      </c>
+      <c r="B285" t="s">
+        <v>83</v>
       </c>
       <c r="C285" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D285" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>72041</v>
+        <v>73111</v>
+      </c>
+      <c r="B286" t="s">
+        <v>295</v>
       </c>
       <c r="C286" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D286" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>72042</v>
+        <v>99991</v>
+      </c>
+      <c r="B287" t="s">
+        <v>338</v>
       </c>
       <c r="C287" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D287" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>72043</v>
-      </c>
-      <c r="C288" t="s">
-        <v>44</v>
-      </c>
-      <c r="D288" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>73001</v>
-      </c>
-      <c r="C289" t="s">
-        <v>45</v>
-      </c>
-      <c r="D289" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>73006</v>
-      </c>
-      <c r="C290" t="s">
-        <v>45</v>
-      </c>
-      <c r="D290" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>73009</v>
-      </c>
-      <c r="C291" t="s">
-        <v>45</v>
-      </c>
-      <c r="D291" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>73022</v>
-      </c>
-      <c r="C292" t="s">
-        <v>45</v>
-      </c>
-      <c r="D292" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>73028</v>
-      </c>
-      <c r="C293" t="s">
-        <v>45</v>
-      </c>
-      <c r="D293" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>73032</v>
-      </c>
-      <c r="C294" t="s">
-        <v>45</v>
-      </c>
-      <c r="D294" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>73040</v>
-      </c>
-      <c r="C295" t="s">
-        <v>45</v>
-      </c>
-      <c r="D295" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>73042</v>
-      </c>
-      <c r="C296" t="s">
-        <v>47</v>
-      </c>
-      <c r="D296" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>73066</v>
-      </c>
-      <c r="C297" t="s">
-        <v>45</v>
-      </c>
-      <c r="D297" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>73083</v>
-      </c>
-      <c r="C298" t="s">
-        <v>45</v>
-      </c>
-      <c r="D298" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>73098</v>
-      </c>
-      <c r="C299" t="s">
-        <v>45</v>
-      </c>
-      <c r="D299" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>73107</v>
-      </c>
-      <c r="C300" t="s">
-        <v>47</v>
-      </c>
-      <c r="D300" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>73109</v>
-      </c>
-      <c r="C301" t="s">
-        <v>48</v>
-      </c>
-      <c r="D301" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>99991</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D302" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D312">
-    <sortCondition ref="C2:C312"/>
-    <sortCondition ref="B2:B312"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kerntabellen/gemeente_treg_gem.xlsx
+++ b/kerntabellen/gemeente_treg_gem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB9A04-712F-40E5-8C3B-A94833596EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A59025-C1D0-4F9F-868C-EE8974463826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="338">
   <si>
     <t>Randstedelijk gebied Antw-Mechelen</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>TREG99991_GEM</t>
-  </si>
-  <si>
-    <t>Niet te lokaliseren (Vlaanderen)</t>
   </si>
   <si>
     <t>Name TREG_gem</t>
@@ -1393,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC42AEC-648F-4583-8381-A457B3BAD71F}">
   <dimension ref="A1:D287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="I284" sqref="I284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,7 +1415,7 @@
         <v>11001</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1432,7 +1429,7 @@
         <v>11002</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1446,7 +1443,7 @@
         <v>11004</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1460,7 +1457,7 @@
         <v>11005</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1474,7 +1471,7 @@
         <v>11008</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1488,7 +1485,7 @@
         <v>11009</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1502,7 +1499,7 @@
         <v>11013</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -1516,7 +1513,7 @@
         <v>11016</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1530,7 +1527,7 @@
         <v>11018</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1544,7 +1541,7 @@
         <v>11021</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1558,7 +1555,7 @@
         <v>11022</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1572,7 +1569,7 @@
         <v>11023</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,7 +1583,7 @@
         <v>11024</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -1600,7 +1597,7 @@
         <v>11025</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1614,7 +1611,7 @@
         <v>11029</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -1628,7 +1625,7 @@
         <v>11030</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1642,7 +1639,7 @@
         <v>11035</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -1656,7 +1653,7 @@
         <v>11037</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -1670,7 +1667,7 @@
         <v>11038</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1684,7 +1681,7 @@
         <v>11039</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1698,7 +1695,7 @@
         <v>11040</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -1712,7 +1709,7 @@
         <v>11044</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1726,7 +1723,7 @@
         <v>11050</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -1740,7 +1737,7 @@
         <v>11052</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -1754,7 +1751,7 @@
         <v>11053</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1768,7 +1765,7 @@
         <v>11054</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -1782,7 +1779,7 @@
         <v>11055</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -1796,7 +1793,7 @@
         <v>11057</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -1810,7 +1807,7 @@
         <v>12002</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -1824,7 +1821,7 @@
         <v>12005</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -1838,7 +1835,7 @@
         <v>12007</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -1852,7 +1849,7 @@
         <v>12009</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -1866,7 +1863,7 @@
         <v>12014</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -1880,7 +1877,7 @@
         <v>12021</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -1894,7 +1891,7 @@
         <v>12025</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -1908,7 +1905,7 @@
         <v>12026</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1922,7 +1919,7 @@
         <v>12029</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -1936,7 +1933,7 @@
         <v>12035</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -1950,7 +1947,7 @@
         <v>12040</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -1964,7 +1961,7 @@
         <v>12041</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -1978,7 +1975,7 @@
         <v>13001</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -1992,7 +1989,7 @@
         <v>13002</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -2006,7 +2003,7 @@
         <v>13003</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -2020,7 +2017,7 @@
         <v>13004</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -2034,7 +2031,7 @@
         <v>13006</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -2048,7 +2045,7 @@
         <v>13008</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -2062,7 +2059,7 @@
         <v>13010</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -2076,7 +2073,7 @@
         <v>13011</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -2090,7 +2087,7 @@
         <v>13012</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -2104,7 +2101,7 @@
         <v>13013</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -2118,7 +2115,7 @@
         <v>13014</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -2132,7 +2129,7 @@
         <v>13016</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -2146,7 +2143,7 @@
         <v>13017</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -2160,7 +2157,7 @@
         <v>13019</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -2174,7 +2171,7 @@
         <v>13021</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -2188,7 +2185,7 @@
         <v>13023</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -2202,7 +2199,7 @@
         <v>13025</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -2216,7 +2213,7 @@
         <v>13029</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -2230,7 +2227,7 @@
         <v>13031</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -2244,7 +2241,7 @@
         <v>13035</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -2258,7 +2255,7 @@
         <v>13036</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -2272,7 +2269,7 @@
         <v>13037</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -2286,7 +2283,7 @@
         <v>13040</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -2300,7 +2297,7 @@
         <v>13044</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -2314,7 +2311,7 @@
         <v>13046</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -2328,7 +2325,7 @@
         <v>13049</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -2342,7 +2339,7 @@
         <v>13053</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -2356,7 +2353,7 @@
         <v>23002</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -2370,7 +2367,7 @@
         <v>23003</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -2384,7 +2381,7 @@
         <v>23009</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>30</v>
@@ -2398,7 +2395,7 @@
         <v>23016</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -2412,7 +2409,7 @@
         <v>23025</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -2426,7 +2423,7 @@
         <v>23027</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -2440,7 +2437,7 @@
         <v>23033</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -2454,7 +2451,7 @@
         <v>23038</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -2468,7 +2465,7 @@
         <v>23039</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
@@ -2482,7 +2479,7 @@
         <v>23044</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
@@ -2496,7 +2493,7 @@
         <v>23045</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
         <v>30</v>
@@ -2510,7 +2507,7 @@
         <v>23047</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
         <v>30</v>
@@ -2524,7 +2521,7 @@
         <v>23050</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81" t="s">
         <v>30</v>
@@ -2538,7 +2535,7 @@
         <v>23052</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
         <v>30</v>
@@ -2552,7 +2549,7 @@
         <v>23060</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
@@ -2566,7 +2563,7 @@
         <v>23062</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
@@ -2580,7 +2577,7 @@
         <v>23064</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -2594,7 +2591,7 @@
         <v>23077</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
         <v>30</v>
@@ -2608,7 +2605,7 @@
         <v>23081</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
         <v>30</v>
@@ -2622,7 +2619,7 @@
         <v>23086</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -2636,7 +2633,7 @@
         <v>23088</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
@@ -2650,7 +2647,7 @@
         <v>23094</v>
       </c>
       <c r="B90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
@@ -2664,7 +2661,7 @@
         <v>23096</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
@@ -2678,7 +2675,7 @@
         <v>23097</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
         <v>30</v>
@@ -2692,7 +2689,7 @@
         <v>23098</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -2706,7 +2703,7 @@
         <v>23099</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -2720,7 +2717,7 @@
         <v>23100</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
@@ -2734,7 +2731,7 @@
         <v>23101</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
@@ -2748,7 +2745,7 @@
         <v>23102</v>
       </c>
       <c r="B97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
@@ -2762,7 +2759,7 @@
         <v>23103</v>
       </c>
       <c r="B98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -2776,7 +2773,7 @@
         <v>23104</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -2790,7 +2787,7 @@
         <v>23105</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -2804,7 +2801,7 @@
         <v>23106</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -2818,7 +2815,7 @@
         <v>24001</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
         <v>31</v>
@@ -2832,7 +2829,7 @@
         <v>24007</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C103" t="s">
         <v>31</v>
@@ -2846,7 +2843,7 @@
         <v>24008</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C104" t="s">
         <v>31</v>
@@ -2860,7 +2857,7 @@
         <v>24009</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -2874,7 +2871,7 @@
         <v>24011</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
         <v>31</v>
@@ -2888,7 +2885,7 @@
         <v>24014</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" t="s">
         <v>30</v>
@@ -2902,7 +2899,7 @@
         <v>24016</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" t="s">
         <v>31</v>
@@ -2916,7 +2913,7 @@
         <v>24020</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>31</v>
@@ -2930,7 +2927,7 @@
         <v>24028</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -2944,7 +2941,7 @@
         <v>24033</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
         <v>30</v>
@@ -2958,7 +2955,7 @@
         <v>24038</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C112" t="s">
         <v>30</v>
@@ -2972,7 +2969,7 @@
         <v>24041</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C113" t="s">
         <v>31</v>
@@ -2986,7 +2983,7 @@
         <v>24043</v>
       </c>
       <c r="B114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114" t="s">
         <v>31</v>
@@ -3000,7 +2997,7 @@
         <v>24045</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
@@ -3014,7 +3011,7 @@
         <v>24048</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
@@ -3028,7 +3025,7 @@
         <v>24054</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -3042,7 +3039,7 @@
         <v>24055</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
         <v>30</v>
@@ -3056,7 +3053,7 @@
         <v>24059</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -3070,7 +3067,7 @@
         <v>24062</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C120" t="s">
         <v>32</v>
@@ -3084,7 +3081,7 @@
         <v>24066</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -3098,7 +3095,7 @@
         <v>24086</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
         <v>30</v>
@@ -3112,7 +3109,7 @@
         <v>24094</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
@@ -3126,7 +3123,7 @@
         <v>24104</v>
       </c>
       <c r="B124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
@@ -3140,7 +3137,7 @@
         <v>24107</v>
       </c>
       <c r="B125" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C125" t="s">
         <v>31</v>
@@ -3154,7 +3151,7 @@
         <v>24109</v>
       </c>
       <c r="B126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -3168,7 +3165,7 @@
         <v>24130</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
@@ -3182,7 +3179,7 @@
         <v>24133</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" t="s">
         <v>31</v>
@@ -3196,7 +3193,7 @@
         <v>24134</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C129" t="s">
         <v>31</v>
@@ -3210,7 +3207,7 @@
         <v>24135</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -3224,7 +3221,7 @@
         <v>24137</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
@@ -3238,7 +3235,7 @@
         <v>31003</v>
       </c>
       <c r="B132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C132" t="s">
         <v>33</v>
@@ -3252,13 +3249,13 @@
         <v>31004</v>
       </c>
       <c r="B133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
       </c>
       <c r="D133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3266,13 +3263,13 @@
         <v>31005</v>
       </c>
       <c r="B134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C134" t="s">
         <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,7 +3277,7 @@
         <v>31006</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C135" t="s">
         <v>33</v>
@@ -3294,7 +3291,7 @@
         <v>31012</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C136" t="s">
         <v>33</v>
@@ -3308,7 +3305,7 @@
         <v>31022</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C137" t="s">
         <v>33</v>
@@ -3322,7 +3319,7 @@
         <v>31033</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C138" t="s">
         <v>33</v>
@@ -3336,7 +3333,7 @@
         <v>31040</v>
       </c>
       <c r="B139" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C139" t="s">
         <v>33</v>
@@ -3350,7 +3347,7 @@
         <v>31042</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C140" t="s">
         <v>33</v>
@@ -3364,13 +3361,13 @@
         <v>31043</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C141" t="s">
         <v>34</v>
       </c>
       <c r="D141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3378,7 +3375,7 @@
         <v>32003</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C142" t="s">
         <v>36</v>
@@ -3392,7 +3389,7 @@
         <v>32006</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" t="s">
         <v>36</v>
@@ -3406,7 +3403,7 @@
         <v>32010</v>
       </c>
       <c r="B144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -3420,7 +3417,7 @@
         <v>32011</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
         <v>36</v>
@@ -3434,7 +3431,7 @@
         <v>32030</v>
       </c>
       <c r="B146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C146" t="s">
         <v>36</v>
@@ -3448,7 +3445,7 @@
         <v>33011</v>
       </c>
       <c r="B147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
         <v>36</v>
@@ -3462,7 +3459,7 @@
         <v>33016</v>
       </c>
       <c r="B148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C148" t="s">
         <v>36</v>
@@ -3476,7 +3473,7 @@
         <v>33021</v>
       </c>
       <c r="B149" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C149" t="s">
         <v>36</v>
@@ -3490,7 +3487,7 @@
         <v>33029</v>
       </c>
       <c r="B150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C150" t="s">
         <v>37</v>
@@ -3504,7 +3501,7 @@
         <v>33037</v>
       </c>
       <c r="B151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C151" t="s">
         <v>36</v>
@@ -3518,7 +3515,7 @@
         <v>33039</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152" t="s">
         <v>36</v>
@@ -3532,7 +3529,7 @@
         <v>33040</v>
       </c>
       <c r="B153" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C153" t="s">
         <v>36</v>
@@ -3546,7 +3543,7 @@
         <v>33041</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -3560,7 +3557,7 @@
         <v>34002</v>
       </c>
       <c r="B155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C155" t="s">
         <v>37</v>
@@ -3574,7 +3571,7 @@
         <v>34003</v>
       </c>
       <c r="B156" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
         <v>37</v>
@@ -3588,7 +3585,7 @@
         <v>34009</v>
       </c>
       <c r="B157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C157" t="s">
         <v>37</v>
@@ -3602,7 +3599,7 @@
         <v>34013</v>
       </c>
       <c r="B158" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C158" t="s">
         <v>37</v>
@@ -3616,7 +3613,7 @@
         <v>34022</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C159" t="s">
         <v>37</v>
@@ -3630,7 +3627,7 @@
         <v>34023</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C160" t="s">
         <v>37</v>
@@ -3644,7 +3641,7 @@
         <v>34025</v>
       </c>
       <c r="B161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C161" t="s">
         <v>37</v>
@@ -3658,7 +3655,7 @@
         <v>34027</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C162" t="s">
         <v>37</v>
@@ -3672,7 +3669,7 @@
         <v>34040</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C163" t="s">
         <v>37</v>
@@ -3686,7 +3683,7 @@
         <v>34041</v>
       </c>
       <c r="B164" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C164" t="s">
         <v>37</v>
@@ -3700,7 +3697,7 @@
         <v>34042</v>
       </c>
       <c r="B165" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C165" t="s">
         <v>37</v>
@@ -3714,7 +3711,7 @@
         <v>34043</v>
       </c>
       <c r="B166" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C166" t="s">
         <v>37</v>
@@ -3728,13 +3725,13 @@
         <v>35002</v>
       </c>
       <c r="B167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C167" t="s">
         <v>34</v>
       </c>
       <c r="D167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3742,7 +3739,7 @@
         <v>35005</v>
       </c>
       <c r="B168" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" t="s">
         <v>33</v>
@@ -3756,7 +3753,7 @@
         <v>35006</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" t="s">
         <v>33</v>
@@ -3770,13 +3767,13 @@
         <v>35011</v>
       </c>
       <c r="B170" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C170" t="s">
         <v>34</v>
       </c>
       <c r="D170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3784,13 +3781,13 @@
         <v>35013</v>
       </c>
       <c r="B171" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C171" t="s">
         <v>34</v>
       </c>
       <c r="D171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3798,7 +3795,7 @@
         <v>35014</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C172" t="s">
         <v>33</v>
@@ -3812,13 +3809,13 @@
         <v>35029</v>
       </c>
       <c r="B173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C173" t="s">
         <v>34</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3826,7 +3823,7 @@
         <v>36006</v>
       </c>
       <c r="B174" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C174" t="s">
         <v>36</v>
@@ -3840,7 +3837,7 @@
         <v>36007</v>
       </c>
       <c r="B175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C175" t="s">
         <v>37</v>
@@ -3854,7 +3851,7 @@
         <v>36008</v>
       </c>
       <c r="B176" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C176" t="s">
         <v>37</v>
@@ -3868,7 +3865,7 @@
         <v>36010</v>
       </c>
       <c r="B177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C177" t="s">
         <v>37</v>
@@ -3882,7 +3879,7 @@
         <v>36011</v>
       </c>
       <c r="B178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C178" t="s">
         <v>33</v>
@@ -3896,7 +3893,7 @@
         <v>36012</v>
       </c>
       <c r="B179" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C179" t="s">
         <v>37</v>
@@ -3910,7 +3907,7 @@
         <v>36015</v>
       </c>
       <c r="B180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -3924,7 +3921,7 @@
         <v>36019</v>
       </c>
       <c r="B181" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C181" t="s">
         <v>36</v>
@@ -3938,7 +3935,7 @@
         <v>37002</v>
       </c>
       <c r="B182" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C182" t="s">
         <v>37</v>
@@ -3952,7 +3949,7 @@
         <v>37010</v>
       </c>
       <c r="B183" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C183" t="s">
         <v>37</v>
@@ -3966,7 +3963,7 @@
         <v>37011</v>
       </c>
       <c r="B184" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C184" t="s">
         <v>33</v>
@@ -3980,7 +3977,7 @@
         <v>37017</v>
       </c>
       <c r="B185" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" t="s">
         <v>37</v>
@@ -3994,7 +3991,7 @@
         <v>37020</v>
       </c>
       <c r="B186" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C186" t="s">
         <v>33</v>
@@ -4008,7 +4005,7 @@
         <v>37021</v>
       </c>
       <c r="B187" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C187" t="s">
         <v>33</v>
@@ -4022,7 +4019,7 @@
         <v>37022</v>
       </c>
       <c r="B188" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C188" t="s">
         <v>33</v>
@@ -4036,7 +4033,7 @@
         <v>38002</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C189" t="s">
         <v>36</v>
@@ -4050,13 +4047,13 @@
         <v>38008</v>
       </c>
       <c r="B190" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C190" t="s">
         <v>34</v>
       </c>
       <c r="D190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4064,13 +4061,13 @@
         <v>38014</v>
       </c>
       <c r="B191" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
         <v>34</v>
       </c>
       <c r="D191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4078,13 +4075,13 @@
         <v>38016</v>
       </c>
       <c r="B192" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C192" t="s">
         <v>34</v>
       </c>
       <c r="D192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4092,7 +4089,7 @@
         <v>38025</v>
       </c>
       <c r="B193" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C193" t="s">
         <v>36</v>
@@ -4106,7 +4103,7 @@
         <v>41002</v>
       </c>
       <c r="B194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
@@ -4120,7 +4117,7 @@
         <v>41011</v>
       </c>
       <c r="B195" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C195" t="s">
         <v>38</v>
@@ -4134,7 +4131,7 @@
         <v>41018</v>
       </c>
       <c r="B196" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C196" t="s">
         <v>39</v>
@@ -4148,7 +4145,7 @@
         <v>41024</v>
       </c>
       <c r="B197" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C197" t="s">
         <v>38</v>
@@ -4162,7 +4159,7 @@
         <v>41027</v>
       </c>
       <c r="B198" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C198" t="s">
         <v>39</v>
@@ -4176,7 +4173,7 @@
         <v>41034</v>
       </c>
       <c r="B199" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" t="s">
         <v>38</v>
@@ -4190,7 +4187,7 @@
         <v>41048</v>
       </c>
       <c r="B200" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C200" t="s">
         <v>38</v>
@@ -4204,7 +4201,7 @@
         <v>41063</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C201" t="s">
         <v>39</v>
@@ -4218,7 +4215,7 @@
         <v>41081</v>
       </c>
       <c r="B202" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C202" t="s">
         <v>39</v>
@@ -4232,7 +4229,7 @@
         <v>41082</v>
       </c>
       <c r="B203" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C203" t="s">
         <v>38</v>
@@ -4246,7 +4243,7 @@
         <v>42003</v>
       </c>
       <c r="B204" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C204" t="s">
         <v>38</v>
@@ -4260,7 +4257,7 @@
         <v>42004</v>
       </c>
       <c r="B205" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C205" t="s">
         <v>38</v>
@@ -4274,7 +4271,7 @@
         <v>42006</v>
       </c>
       <c r="B206" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C206" t="s">
         <v>38</v>
@@ -4288,7 +4285,7 @@
         <v>42008</v>
       </c>
       <c r="B207" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C207" t="s">
         <v>38</v>
@@ -4302,7 +4299,7 @@
         <v>42010</v>
       </c>
       <c r="B208" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C208" t="s">
         <v>38</v>
@@ -4316,7 +4313,7 @@
         <v>42011</v>
       </c>
       <c r="B209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C209" t="s">
         <v>38</v>
@@ -4330,7 +4327,7 @@
         <v>42023</v>
       </c>
       <c r="B210" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C210" t="s">
         <v>40</v>
@@ -4344,7 +4341,7 @@
         <v>42025</v>
       </c>
       <c r="B211" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -4358,7 +4355,7 @@
         <v>42026</v>
       </c>
       <c r="B212" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C212" t="s">
         <v>38</v>
@@ -4372,7 +4369,7 @@
         <v>42028</v>
       </c>
       <c r="B213" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C213" t="s">
         <v>38</v>
@@ -4386,7 +4383,7 @@
         <v>43002</v>
       </c>
       <c r="B214" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C214" t="s">
         <v>41</v>
@@ -4400,7 +4397,7 @@
         <v>43005</v>
       </c>
       <c r="B215" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C215" t="s">
         <v>41</v>
@@ -4414,7 +4411,7 @@
         <v>43007</v>
       </c>
       <c r="B216" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C216" t="s">
         <v>41</v>
@@ -4428,7 +4425,7 @@
         <v>43010</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
         <v>41</v>
@@ -4442,7 +4439,7 @@
         <v>43014</v>
       </c>
       <c r="B218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C218" t="s">
         <v>41</v>
@@ -4456,7 +4453,7 @@
         <v>43018</v>
       </c>
       <c r="B219" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C219" t="s">
         <v>41</v>
@@ -4470,7 +4467,7 @@
         <v>44013</v>
       </c>
       <c r="B220" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C220" t="s">
         <v>38</v>
@@ -4484,7 +4481,7 @@
         <v>44019</v>
       </c>
       <c r="B221" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C221" t="s">
         <v>41</v>
@@ -4498,7 +4495,7 @@
         <v>44020</v>
       </c>
       <c r="B222" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C222" t="s">
         <v>39</v>
@@ -4512,7 +4509,7 @@
         <v>44021</v>
       </c>
       <c r="B223" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C223" t="s">
         <v>43</v>
@@ -4526,7 +4523,7 @@
         <v>44052</v>
       </c>
       <c r="B224" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C224" t="s">
         <v>39</v>
@@ -4540,7 +4537,7 @@
         <v>44064</v>
       </c>
       <c r="B225" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C225" t="s">
         <v>42</v>
@@ -4554,7 +4551,7 @@
         <v>44081</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C226" t="s">
         <v>42</v>
@@ -4568,7 +4565,7 @@
         <v>44083</v>
       </c>
       <c r="B227" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C227" t="s">
         <v>42</v>
@@ -4582,7 +4579,7 @@
         <v>44084</v>
       </c>
       <c r="B228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C228" t="s">
         <v>41</v>
@@ -4596,7 +4593,7 @@
         <v>44085</v>
       </c>
       <c r="B229" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C229" t="s">
         <v>41</v>
@@ -4610,7 +4607,7 @@
         <v>44086</v>
       </c>
       <c r="B230" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C230" t="s">
         <v>42</v>
@@ -4624,7 +4621,7 @@
         <v>44087</v>
       </c>
       <c r="B231" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C231" t="s">
         <v>40</v>
@@ -4638,7 +4635,7 @@
         <v>44088</v>
       </c>
       <c r="B232" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C232" t="s">
         <v>38</v>
@@ -4652,7 +4649,7 @@
         <v>45035</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C233" t="s">
         <v>39</v>
@@ -4666,7 +4663,7 @@
         <v>45041</v>
       </c>
       <c r="B234" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C234" t="s">
         <v>39</v>
@@ -4680,7 +4677,7 @@
         <v>45059</v>
       </c>
       <c r="B235" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C235" t="s">
         <v>39</v>
@@ -4694,7 +4691,7 @@
         <v>45060</v>
       </c>
       <c r="B236" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C236" t="s">
         <v>39</v>
@@ -4708,7 +4705,7 @@
         <v>45061</v>
       </c>
       <c r="B237" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C237" t="s">
         <v>39</v>
@@ -4722,7 +4719,7 @@
         <v>45062</v>
       </c>
       <c r="B238" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C238" t="s">
         <v>39</v>
@@ -4736,7 +4733,7 @@
         <v>45063</v>
       </c>
       <c r="B239" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C239" t="s">
         <v>39</v>
@@ -4750,7 +4747,7 @@
         <v>45064</v>
       </c>
       <c r="B240" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C240" t="s">
         <v>39</v>
@@ -4764,7 +4761,7 @@
         <v>45065</v>
       </c>
       <c r="B241" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C241" t="s">
         <v>39</v>
@@ -4778,7 +4775,7 @@
         <v>45068</v>
       </c>
       <c r="B242" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C242" t="s">
         <v>39</v>
@@ -4792,7 +4789,7 @@
         <v>46020</v>
       </c>
       <c r="B243" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C243" t="s">
         <v>40</v>
@@ -4806,7 +4803,7 @@
         <v>46021</v>
       </c>
       <c r="B244" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C244" t="s">
         <v>40</v>
@@ -4820,7 +4817,7 @@
         <v>46024</v>
       </c>
       <c r="B245" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C245" t="s">
         <v>40</v>
@@ -4834,7 +4831,7 @@
         <v>46025</v>
       </c>
       <c r="B246" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C246" t="s">
         <v>40</v>
@@ -4848,7 +4845,7 @@
         <v>46029</v>
       </c>
       <c r="B247" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C247" t="s">
         <v>40</v>
@@ -4862,7 +4859,7 @@
         <v>46030</v>
       </c>
       <c r="B248" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C248" t="s">
         <v>40</v>
@@ -4876,7 +4873,7 @@
         <v>71002</v>
       </c>
       <c r="B249" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C249" t="s">
         <v>44</v>
@@ -4890,7 +4887,7 @@
         <v>71004</v>
       </c>
       <c r="B250" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C250" t="s">
         <v>44</v>
@@ -4904,7 +4901,7 @@
         <v>71011</v>
       </c>
       <c r="B251" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C251" t="s">
         <v>45</v>
@@ -4918,7 +4915,7 @@
         <v>71016</v>
       </c>
       <c r="B252" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C252" t="s">
         <v>44</v>
@@ -4932,7 +4929,7 @@
         <v>71017</v>
       </c>
       <c r="B253" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C253" t="s">
         <v>45</v>
@@ -4946,7 +4943,7 @@
         <v>71020</v>
       </c>
       <c r="B254" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C254" t="s">
         <v>44</v>
@@ -4960,7 +4957,7 @@
         <v>71024</v>
       </c>
       <c r="B255" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C255" t="s">
         <v>44</v>
@@ -4974,7 +4971,7 @@
         <v>71034</v>
       </c>
       <c r="B256" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C256" t="s">
         <v>44</v>
@@ -4988,7 +4985,7 @@
         <v>71037</v>
       </c>
       <c r="B257" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C257" t="s">
         <v>44</v>
@@ -5002,7 +4999,7 @@
         <v>71045</v>
       </c>
       <c r="B258" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C258" t="s">
         <v>45</v>
@@ -5016,7 +5013,7 @@
         <v>71053</v>
       </c>
       <c r="B259" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C259" t="s">
         <v>45</v>
@@ -5030,7 +5027,7 @@
         <v>71066</v>
       </c>
       <c r="B260" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C260" t="s">
         <v>44</v>
@@ -5044,7 +5041,7 @@
         <v>71067</v>
       </c>
       <c r="B261" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C261" t="s">
         <v>44</v>
@@ -5058,7 +5055,7 @@
         <v>71070</v>
       </c>
       <c r="B262" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C262" t="s">
         <v>44</v>
@@ -5072,7 +5069,7 @@
         <v>71071</v>
       </c>
       <c r="B263" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C263" t="s">
         <v>44</v>
@@ -5100,7 +5097,7 @@
         <v>72003</v>
       </c>
       <c r="B265" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C265" t="s">
         <v>44</v>
@@ -5114,7 +5111,7 @@
         <v>72004</v>
       </c>
       <c r="B266" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C266" t="s">
         <v>44</v>
@@ -5128,7 +5125,7 @@
         <v>72018</v>
       </c>
       <c r="B267" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C267" t="s">
         <v>47</v>
@@ -5142,7 +5139,7 @@
         <v>72020</v>
       </c>
       <c r="B268" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C268" t="s">
         <v>44</v>
@@ -5156,7 +5153,7 @@
         <v>72021</v>
       </c>
       <c r="B269" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C269" t="s">
         <v>47</v>
@@ -5170,7 +5167,7 @@
         <v>72030</v>
       </c>
       <c r="B270" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C270" t="s">
         <v>44</v>
@@ -5184,7 +5181,7 @@
         <v>72037</v>
       </c>
       <c r="B271" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C271" t="s">
         <v>44</v>
@@ -5198,7 +5195,7 @@
         <v>72038</v>
       </c>
       <c r="B272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C272" t="s">
         <v>44</v>
@@ -5212,7 +5209,7 @@
         <v>72039</v>
       </c>
       <c r="B273" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C273" t="s">
         <v>44</v>
@@ -5226,7 +5223,7 @@
         <v>72041</v>
       </c>
       <c r="B274" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C274" t="s">
         <v>47</v>
@@ -5240,7 +5237,7 @@
         <v>72042</v>
       </c>
       <c r="B275" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C275" t="s">
         <v>44</v>
@@ -5254,7 +5251,7 @@
         <v>72043</v>
       </c>
       <c r="B276" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C276" t="s">
         <v>44</v>
@@ -5268,7 +5265,7 @@
         <v>73001</v>
       </c>
       <c r="B277" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C277" t="s">
         <v>45</v>
@@ -5282,7 +5279,7 @@
         <v>73022</v>
       </c>
       <c r="B278" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C278" t="s">
         <v>45</v>
@@ -5296,7 +5293,7 @@
         <v>73028</v>
       </c>
       <c r="B279" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C279" t="s">
         <v>45</v>
@@ -5310,7 +5307,7 @@
         <v>73042</v>
       </c>
       <c r="B280" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C280" t="s">
         <v>47</v>
@@ -5324,7 +5321,7 @@
         <v>73066</v>
       </c>
       <c r="B281" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C281" t="s">
         <v>45</v>
@@ -5338,7 +5335,7 @@
         <v>73098</v>
       </c>
       <c r="B282" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C282" t="s">
         <v>45</v>
@@ -5352,7 +5349,7 @@
         <v>73107</v>
       </c>
       <c r="B283" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C283" t="s">
         <v>47</v>
@@ -5366,7 +5363,7 @@
         <v>73109</v>
       </c>
       <c r="B284" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C284" t="s">
         <v>48</v>
@@ -5380,7 +5377,7 @@
         <v>73110</v>
       </c>
       <c r="B285" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C285" t="s">
         <v>45</v>
@@ -5394,7 +5391,7 @@
         <v>73111</v>
       </c>
       <c r="B286" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C286" t="s">
         <v>45</v>
@@ -5408,13 +5405,13 @@
         <v>99991</v>
       </c>
       <c r="B287" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C287" t="s">
         <v>49</v>
       </c>
       <c r="D287" t="s">
-        <v>50</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
